--- a/data/vulnerabilities.xlsx
+++ b/data/vulnerabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Uni\Talentos\LLM-and-ODC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEB19F-2A5D-4688-B4AE-59F49AF1F031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C0D48-26A4-4CCD-9494-01EB92A673AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A00165BD-DFB3-BD4B-9391-7BF7A583E416}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="1522">
   <si>
     <t>V_ID</t>
   </si>
@@ -4636,13 +4636,31 @@
   </si>
   <si>
     <t xml:space="preserve">gfx/graphite2/src/json.cpp </t>
+  </si>
+  <si>
+    <t>https://github.com/mozilla/gecko-dev/commit/a16a44393d62c68c5aded9e6e282c5ac4fb3e496</t>
+  </si>
+  <si>
+    <t>https://github.com/mozilla/gecko-dev/commit/bfea94bf48feaee076ec69afa5e04ab6340900af</t>
+  </si>
+  <si>
+    <t>https://github.com/mozilla/gecko-dev/commit/f54fef5b48eae68d6853878d130f507943b44ea6</t>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/27df6f25ff218072e0e879a96beeb398a79cdbc8</t>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/74454a6a286bfce4bb23d89bd465f856fa6a6e19</t>
+  </si>
+  <si>
+    <t>https://github.com/xen-project/xen/commit/8b2c441a1b53a43a38b3c517e28f239da3349872</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4692,6 +4710,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4719,7 +4744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4854,19 +4879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -4916,7 +4928,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4946,7 +4958,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -4978,13 +4989,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4992,10 +5004,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -18492,6 +18509,101 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{876C571E-2282-4D43-8D98-53DB7CC78851}" name="Tabela Dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Defect Type" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA04E8B4-5D2A-6547-9536-E6B83133873B}" name="Tabela Dinâmica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A34:F40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -18578,7 +18690,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{816AEB3D-4CC5-3D43-8CBF-7375092873C9}" name="Tabela Dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A21:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -18660,101 +18772,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Contagem de Defect Type" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{876C571E-2282-4D43-8D98-53DB7CC78851}" name="Tabela Dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Defect Type" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20423,9 +20440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ED6079-E8B5-6640-BD42-6CBFE9D43206}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M260" sqref="M260"/>
+      <selection pane="bottomLeft" activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -20501,7 +20518,7 @@
       <c r="B3" s="17" t="s">
         <v>1510</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -20535,44 +20552,44 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f>_xlfn.XLOOKUP(E4,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="29" t="str">
+      <c r="I4" s="28" t="str">
         <f>_xlfn.XLOOKUP(C4,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The browser engine in Mozilla Firefox 3.5.x before 3.5.2 allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via vectors related to the TraceRecorder::snapshot function in js/src/jstracer.cpp, and unspecified other vectors.</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28" t="s">
         <v>1128</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -20612,44 +20629,44 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f>_xlfn.XLOOKUP(E6,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="29" t="str">
+      <c r="I6" s="28" t="str">
         <f>_xlfn.XLOOKUP(C6,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>js/src/jstracer.cpp in the browser engine in Mozilla Firefox 3.6.x before 3.6.7 and Thunderbird 3.1.x before 3.1.1 allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via vectors related to (1) propagation of deep aborts in the TraceRecorder::record_JSOP_BINDNAME function, (2) depth handling in the TraceRecorder::record_JSOP_GETELEM function, and (3) tracing of out-of-range arguments in the TraceRecorder::record_JSOP_ARGSUB function.</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="42" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="41" t="s">
         <v>1130</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -20658,7 +20675,7 @@
       <c r="B7" s="17" t="s">
         <v>1510</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -20667,10 +20684,10 @@
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>1514</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>502</v>
       </c>
       <c r="H7" s="17">
@@ -20698,7 +20715,7 @@
       <c r="B8" s="22" t="s">
         <v>1510</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -20707,10 +20724,10 @@
       <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>502</v>
       </c>
       <c r="H8" s="22">
@@ -20719,9 +20736,13 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="48" t="s">
+      <c r="K8" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>1458</v>
       </c>
       <c r="N8" s="22"/>
@@ -20759,7 +20780,7 @@
       <c r="K9" t="s">
         <v>1132</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="28" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -20794,7 +20815,7 @@
         <v>Mozilla Firefox before 3.5.12 and 3.6.x before 3.6.9, Thunderbird before 3.0.7 and 3.1.x before 3.1.3, and SeaMonkey before 2.0.7 do not properly restrict the role of property changes in triggering XUL tree removal, which allows remote attackers to cause a denial of service (deleted memory access and application crash) or possibly execute arbitrary code by setting unspecified properties.</v>
       </c>
       <c r="J10" s="17"/>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>1348</v>
       </c>
       <c r="L10" s="17" t="s">
@@ -20831,6 +20852,9 @@
         <f>_xlfn.XLOOKUP(E11,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
+      <c r="K11" t="s">
+        <v>1348</v>
+      </c>
       <c r="L11" t="s">
         <v>1460</v>
       </c>
@@ -20864,6 +20888,9 @@
         <f>_xlfn.XLOOKUP(E12,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
+      <c r="K12" t="s">
+        <v>1348</v>
+      </c>
       <c r="L12" t="s">
         <v>1460</v>
       </c>
@@ -20871,135 +20898,147 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" t="s">
         <v>1510</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" t="s">
         <v>482</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13">
         <f>_xlfn.XLOOKUP(E13,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="K13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L13" t="s">
         <v>1460</v>
       </c>
-      <c r="N13" s="68" t="s">
+      <c r="N13" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" t="s">
         <v>1510</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" t="s">
         <v>482</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14">
         <f>_xlfn.XLOOKUP(E14,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="K14" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L14" t="s">
         <v>1460</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" t="s">
         <v>1510</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" t="s">
         <v>482</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15">
         <f>_xlfn.XLOOKUP(E15,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="L15" s="68" t="s">
+      <c r="K15" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L15" t="s">
         <v>1460</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N15" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" t="s">
         <v>1510</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" t="s">
         <v>482</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16">
         <f>_xlfn.XLOOKUP(E16,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="K16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L16" t="s">
         <v>1460</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" t="s">
         <v>631</v>
       </c>
     </row>
@@ -21031,7 +21070,9 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="22" t="s">
+        <v>1348</v>
+      </c>
       <c r="L17" s="22" t="s">
         <v>1460</v>
       </c>
@@ -21056,7 +21097,7 @@
       <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="58" t="s">
         <v>500</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -21103,49 +21144,55 @@
         <f>_xlfn.XLOOKUP(E19,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1344</v>
+      </c>
       <c r="M19" s="8" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>503</v>
       </c>
       <c r="H20" s="17">
         <f>_xlfn.XLOOKUP(E20,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="29" t="str">
+      <c r="I20" s="28" t="str">
         <f>_xlfn.XLOOKUP(C20,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the JavaScript engine in Mozilla Firefox before 3.5.17 and 3.6.x before 3.6.14, and SeaMonkey before 2.0.12, might allow remote attackers to execute arbitrary code via vectors involving non-local JavaScript variables, aka an "upvarMap" issue.</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29" t="s">
+      <c r="J20" s="28"/>
+      <c r="K20" s="28" t="s">
         <v>1134</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -21213,8 +21260,11 @@
       <c r="K22" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>32</v>
       </c>
@@ -21230,7 +21280,7 @@
       <c r="E23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="55" t="s">
         <v>498</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -21245,7 +21295,7 @@
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="27" t="s">
         <v>1349</v>
       </c>
       <c r="L23" s="17" t="s">
@@ -21256,125 +21306,123 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="68" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" t="s">
         <v>1510</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" t="s">
         <v>480</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="63" t="s">
         <v>498</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24">
         <f>_xlfn.XLOOKUP(E24,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="I24" s="68" t="str">
+      <c r="I24" t="str">
         <f>_xlfn.XLOOKUP(C24,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="36" t="s">
         <v>1349</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" t="s">
         <v>1460</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" t="s">
         <v>1510</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" t="s">
         <v>480</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="63" t="s">
         <v>498</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25">
         <f>_xlfn.XLOOKUP(E25,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="I25" s="68" t="str">
+      <c r="I25" t="str">
         <f>_xlfn.XLOOKUP(C25,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="36" t="s">
         <v>1349</v>
       </c>
-      <c r="L25" s="68" t="s">
+      <c r="L25" t="s">
         <v>1460</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="68" t="s">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" t="s">
         <v>1510</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" t="s">
         <v>480</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="63" t="s">
         <v>498</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26">
         <f>_xlfn.XLOOKUP(E26,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="I26" s="68" t="str">
+      <c r="I26" t="str">
         <f>_xlfn.XLOOKUP(C26,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="36" t="s">
         <v>1349</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="L26" t="s">
         <v>1460</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68" t="s">
+      <c r="N26" t="s">
         <v>539</v>
       </c>
     </row>
@@ -21394,7 +21442,7 @@
       <c r="E27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="55" t="s">
         <v>498</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -21409,7 +21457,7 @@
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="27" t="s">
         <v>1349</v>
       </c>
       <c r="L27" s="17" t="s">
@@ -21442,9 +21490,12 @@
       <c r="G28" t="s">
         <v>503</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="63">
         <f>_xlfn.XLOOKUP(E28,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1349</v>
       </c>
       <c r="L28" t="s">
         <v>1460</v>
@@ -21479,6 +21530,9 @@
         <f>_xlfn.XLOOKUP(E29,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
+      <c r="K29" s="22" t="s">
+        <v>1349</v>
+      </c>
       <c r="L29" s="22" t="s">
         <v>1460</v>
       </c>
@@ -21551,7 +21605,7 @@
       <c r="G31" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="63">
         <f>_xlfn.XLOOKUP(E31,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
@@ -21591,7 +21645,7 @@
       <c r="G32" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="63">
         <f>_xlfn.XLOOKUP(E32,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
@@ -21631,9 +21685,12 @@
       <c r="G33" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="64">
         <f>_xlfn.XLOOKUP(E33,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1350</v>
       </c>
       <c r="L33" t="s">
         <v>1460</v>
@@ -21649,7 +21706,7 @@
       <c r="B34" s="17" t="s">
         <v>1510</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -21658,10 +21715,10 @@
       <c r="E34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="37" t="s">
         <v>1514</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="43" t="s">
         <v>502</v>
       </c>
       <c r="H34" s="17">
@@ -21689,7 +21746,7 @@
       <c r="B35" s="22" t="s">
         <v>1510</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -21698,10 +21755,10 @@
       <c r="E35" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="46" t="s">
         <v>503</v>
       </c>
       <c r="H35" s="22">
@@ -21710,9 +21767,13 @@
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48" t="s">
+      <c r="K35" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M35" s="47" t="s">
         <v>1458</v>
       </c>
       <c r="N35" s="22"/>
@@ -21750,6 +21811,9 @@
       <c r="K36" s="11" t="s">
         <v>1351</v>
       </c>
+      <c r="L36" t="s">
+        <v>1460</v>
+      </c>
       <c r="N36" t="s">
         <v>719</v>
       </c>
@@ -21776,9 +21840,12 @@
       <c r="G37" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="63">
         <f>_xlfn.XLOOKUP(E37,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>1351</v>
       </c>
       <c r="L37" t="s">
         <v>1460</v>
@@ -21809,9 +21876,12 @@
       <c r="G38" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="63">
         <f>_xlfn.XLOOKUP(E38,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>1351</v>
       </c>
       <c r="L38" t="s">
         <v>1460</v>
@@ -21842,10 +21912,13 @@
       <c r="G39" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="64">
         <f>_xlfn.XLOOKUP(E39,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
+      <c r="K39" s="11" t="s">
+        <v>1351</v>
+      </c>
       <c r="L39" t="s">
         <v>1460</v>
       </c>
@@ -21853,183 +21926,196 @@
         <v>722</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="20" t="s">
         <v>1510</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="20" t="s">
         <v>1514</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="70" t="s">
         <v>503</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="20">
         <f>_xlfn.XLOOKUP(E40,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="I40" s="17" t="str">
+      <c r="I40" s="20" t="str">
         <f>_xlfn.XLOOKUP(C40,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.24 and 4.x through 7.0 and Thunderbird before 3.1.6 and 5.0 through 7.0 do not properly handle JavaScript files that contain many functions, which allows user-assisted remote attackers to cause a denial of service (memory corruption and application crash) or possibly have unspecified other impact via a crafted file that is accessed by debugging APIs, as demonstrated by Firebug.</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17" t="s">
+      <c r="J40" s="20"/>
+      <c r="K40" s="20" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L40" s="20" t="s">
         <v>1460</v>
       </c>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17" t="s">
+      <c r="M40" s="20"/>
+      <c r="N40" s="20" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="9">
         <f>_xlfn.XLOOKUP(E41,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="9" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="71" t="s">
         <v>502</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="24">
         <f>_xlfn.XLOOKUP(E42,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="K42" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L42" s="24" t="s">
         <v>1460</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="N42" s="24" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="30" t="s">
         <v>1510</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="72" t="s">
         <v>1514</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="20">
         <f>_xlfn.XLOOKUP(E43,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="9" t="str">
         <f>_xlfn.XLOOKUP(C43,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The browser engine in Mozilla Firefox before 8.0 and Thunderbird before 8.0 does not properly allocate memory, which allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via unspecified vectors.</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L43" s="9" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>1510</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="74" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="20">
         <f>_xlfn.XLOOKUP(E44,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I44" s="29" t="str">
+      <c r="I44" s="30" t="str">
         <f>_xlfn.XLOOKUP(C44,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The browser engine in Mozilla Firefox before 8.0 and Thunderbird before 8.0 does not properly handle links from SVG mpath elements to non-SVG elements, which allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via unspecified vectors.</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="30" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L44" s="30" t="s">
         <v>1344</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -22069,44 +22155,44 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H46" s="17">
         <f>_xlfn.XLOOKUP(E46,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I46" s="29" t="str">
+      <c r="I46" s="28" t="str">
         <f>_xlfn.XLOOKUP(C46,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The cairo-dwrite implementation in Mozilla Firefox 4.x through 11.0, Firefox ESR 10.x before 10.0.4, Thunderbird 5.0 through 11.0, Thunderbird ESR 10.x before 10.0.4, and SeaMonkey before 2.9, when certain Windows Vista and Windows 7 configurations are used, does not properly restrict font-rendering attempts, which allows remote attackers to cause a denial of service (memory corruption) or possibly execute arbitrary code via unspecified vectors.</v>
       </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29" t="s">
+      <c r="J46" s="28"/>
+      <c r="K46" s="28" t="s">
         <v>1138</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -22146,46 +22232,46 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H48" s="17">
         <f>_xlfn.XLOOKUP(E48,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I48" s="29" t="str">
+      <c r="I48" s="28" t="str">
         <f>_xlfn.XLOOKUP(C48,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The glBufferData function in the WebGL implementation in Mozilla Firefox 4.x through 12.0, Firefox ESR 10.x before 10.0.5, Thunderbird 5.0 through 12.0, Thunderbird ESR 10.x before 10.0.5, and SeaMonkey before 2.10 does not properly mitigate an unspecified flaw in an NVIDIA driver, which allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via unknown vectors, a related issue to CVE-2011-3101.</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="28" t="s">
         <v>1141</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="K48" s="28" t="s">
         <v>1142</v>
       </c>
-      <c r="L48" s="29" t="s">
+      <c r="L48" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -22231,86 +22317,86 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H50" s="17">
         <f>_xlfn.XLOOKUP(E50,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-      <c r="I50" s="29" t="str">
+      <c r="I50" s="28" t="str">
         <f>_xlfn.XLOOKUP(C50,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 15.0, Firefox ESR 10.x before 10.0.7, Thunderbird before 15.0, Thunderbird ESR 10.x before 10.0.7, and SeaMonkey before 2.12 allow remote attackers to execute arbitrary code or cause a denial of service (memory corruption) via a negative height value in a BMP image within a .ICO file, related to (1) improper handling of the transparency bitmask by the nsICODecoder component and (2) improper processing of the alpha channel by the nsBMPDecoder component.</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="42" t="s">
+      <c r="J50" s="28"/>
+      <c r="K50" s="41" t="s">
         <v>1352</v>
       </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29" t="s">
+      <c r="L50" s="28"/>
+      <c r="M50" s="28" t="s">
         <v>1489</v>
       </c>
-      <c r="N50" s="29" t="s">
+      <c r="N50" s="28" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="38" t="s">
         <v>1514</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H51" s="17">
         <f>_xlfn.XLOOKUP(E51,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I51" s="29" t="str">
+      <c r="I51" s="28" t="str">
         <f>_xlfn.XLOOKUP(C51,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 15.0, Firefox ESR 10.x before 10.0.7, Thunderbird before 15.0, Thunderbird ESR 10.x before 10.0.7, and SeaMonkey before 2.12 allow remote attackers to execute arbitrary code or cause a denial of service (memory corruption) via a negative height value in a BMP image within a .ICO file, related to (1) improper handling of the transparency bitmask by the nsICODecoder component and (2) improper processing of the alpha channel by the nsBMPDecoder component.</v>
       </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29" t="s">
+      <c r="J51" s="28"/>
+      <c r="K51" s="28" t="s">
         <v>1353</v>
       </c>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -22378,6 +22464,9 @@
         <f>_xlfn.XLOOKUP(E53,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
+      <c r="K53" s="11" t="s">
+        <v>1354</v>
+      </c>
       <c r="L53" t="s">
         <v>1460</v>
       </c>
@@ -22411,6 +22500,9 @@
         <f>_xlfn.XLOOKUP(E54,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
+      <c r="K54" t="s">
+        <v>1354</v>
+      </c>
       <c r="L54" t="s">
         <v>1460</v>
       </c>
@@ -22444,6 +22536,9 @@
         <f>_xlfn.XLOOKUP(E55,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
+      <c r="K55" t="s">
+        <v>1354</v>
+      </c>
       <c r="L55" t="s">
         <v>1460</v>
       </c>
@@ -22477,6 +22572,9 @@
         <f>_xlfn.XLOOKUP(E56,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
+      <c r="K56" t="s">
+        <v>1354</v>
+      </c>
       <c r="L56" t="s">
         <v>1460</v>
       </c>
@@ -22511,6 +22609,9 @@
         <v>5</v>
       </c>
       <c r="I57" s="22"/>
+      <c r="K57" t="s">
+        <v>1354</v>
+      </c>
       <c r="L57" t="s">
         <v>1460</v>
       </c>
@@ -22560,135 +22661,147 @@
         <v>534</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="68" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" t="s">
         <v>1510</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" t="s">
         <v>482</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H59" s="68">
+      <c r="H59">
         <f>_xlfn.XLOOKUP(E59,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="L59" s="68" t="s">
+      <c r="K59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L59" t="s">
         <v>1460</v>
       </c>
-      <c r="N59" s="68" t="s">
+      <c r="N59" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="68" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" t="s">
         <v>1510</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" t="s">
         <v>482</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="69" t="s">
+      <c r="F60" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H60" s="68">
+      <c r="H60">
         <f>_xlfn.XLOOKUP(E60,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="L60" s="68" t="s">
+      <c r="K60" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L60" t="s">
         <v>1460</v>
       </c>
-      <c r="N60" s="68" t="s">
+      <c r="N60" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="68" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B61" t="s">
         <v>1510</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" t="s">
         <v>482</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H61" s="68">
+      <c r="H61">
         <f>_xlfn.XLOOKUP(E61,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="L61" s="68" t="s">
+      <c r="K61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L61" t="s">
         <v>1460</v>
       </c>
-      <c r="N61" s="68" t="s">
+      <c r="N61" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="68" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" t="s">
         <v>1510</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" t="s">
         <v>482</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F62" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H62" s="68">
+      <c r="H62">
         <f>_xlfn.XLOOKUP(E62,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="L62" s="68" t="s">
+      <c r="K62" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L62" t="s">
         <v>1460</v>
       </c>
-      <c r="N62" s="68" t="s">
+      <c r="N62" t="s">
         <v>723</v>
       </c>
     </row>
@@ -22720,7 +22833,9 @@
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="K63" s="22" t="s">
+        <v>1355</v>
+      </c>
       <c r="L63" s="22" t="s">
         <v>1460</v>
       </c>
@@ -22795,6 +22910,9 @@
         <f>_xlfn.XLOOKUP(E65,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>17</v>
       </c>
+      <c r="K65" t="s">
+        <v>1356</v>
+      </c>
       <c r="N65" t="s">
         <v>877</v>
       </c>
@@ -22825,6 +22943,9 @@
         <f>_xlfn.XLOOKUP(E66,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>17</v>
       </c>
+      <c r="K66" t="s">
+        <v>1356</v>
+      </c>
       <c r="N66" t="s">
         <v>807</v>
       </c>
@@ -22855,6 +22976,9 @@
         <f>_xlfn.XLOOKUP(E67,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>17</v>
       </c>
+      <c r="K67" t="s">
+        <v>1356</v>
+      </c>
       <c r="N67" t="s">
         <v>878</v>
       </c>
@@ -22885,6 +23009,9 @@
         <f>_xlfn.XLOOKUP(E68,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>17</v>
       </c>
+      <c r="K68" t="s">
+        <v>1356</v>
+      </c>
       <c r="N68" t="s">
         <v>879</v>
       </c>
@@ -22915,48 +23042,51 @@
         <f>_xlfn.XLOOKUP(E69,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>17</v>
       </c>
+      <c r="K69" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="48" t="s">
         <v>503</v>
       </c>
       <c r="H70" s="17">
         <f>_xlfn.XLOOKUP(E70,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I70" s="29" t="str">
+      <c r="I70" s="28" t="str">
         <f>_xlfn.XLOOKUP(C70,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the nsCharTraits::length function in Mozilla Firefox before 16.0, Firefox ESR 10.x before 10.0.8, Thunderbird before 16.0, Thunderbird ESR 10.x before 10.0.8, and SeaMonkey before 2.13 allows remote attackers to execute arbitrary code or cause a denial of service (heap memory corruption) via unspecified vectors.</v>
       </c>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29" t="s">
+      <c r="J70" s="28"/>
+      <c r="K70" s="28" t="s">
         <v>1145</v>
       </c>
-      <c r="L70" s="29" t="s">
+      <c r="L70" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M70" s="50" t="s">
+      <c r="M70" s="49" t="s">
         <v>1146</v>
       </c>
-      <c r="N70" s="29"/>
+      <c r="N70" s="28"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -22999,44 +23129,44 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H72" s="17">
         <f>_xlfn.XLOOKUP(E72,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I72" s="29" t="str">
+      <c r="I72" s="28" t="str">
         <f>_xlfn.XLOOKUP(C72,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 16.0, Firefox ESR 10.x before 10.0.8, Thunderbird before 16.0, Thunderbird ESR 10.x before 10.0.8, and SeaMonkey before 2.13 do not properly manage a certain insPos variable, which allows remote attackers to execute arbitrary code or cause a denial of service (heap memory corruption and assertion failure) via unspecified vectors.</v>
       </c>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29" t="s">
+      <c r="J72" s="28"/>
+      <c r="K72" s="28" t="s">
         <v>1357</v>
       </c>
-      <c r="L72" s="29" t="s">
+      <c r="L72" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -23079,44 +23209,44 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="G74" s="30" t="s">
+      <c r="G74" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H74" s="17">
         <f>_xlfn.XLOOKUP(E74,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
-      <c r="I74" s="29" t="str">
+      <c r="I74" s="28" t="str">
         <f>_xlfn.XLOOKUP(C74,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The FT2FontEntry::CreateFontEntry function in FreeType, as used in the Android build of Mozilla Firefox before 16.0.1 on CyanogenMod 10, allows remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via unspecified vectors.</v>
       </c>
-      <c r="J74" s="29"/>
-      <c r="K74" s="42" t="s">
+      <c r="J74" s="28"/>
+      <c r="K74" s="41" t="s">
         <v>1358</v>
       </c>
-      <c r="L74" s="29" t="s">
+      <c r="L74" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29" t="s">
+      <c r="M74" s="28"/>
+      <c r="N74" s="28" t="s">
         <v>1491</v>
       </c>
     </row>
@@ -23160,7 +23290,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>100</v>
       </c>
@@ -23204,175 +23334,175 @@
         <v>831</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="68" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="68" t="s">
+      <c r="B77" t="s">
         <v>1510</v>
       </c>
-      <c r="C77" s="68" t="s">
+      <c r="C77" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" t="s">
         <v>481</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" t="s">
         <v>1514</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H77" s="68">
+      <c r="H77">
         <f>_xlfn.XLOOKUP(E77,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="I77" s="68" t="str">
+      <c r="I77" t="str">
         <f>_xlfn.XLOOKUP(C77,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the CharDistributionAnalysis::HandleOneChar function in Mozilla Firefox before 18.0, Thunderbird before 17.0.2, and SeaMonkey before 2.15 allows remote attackers to execute arbitrary code via a crafted document.</v>
       </c>
-      <c r="K77" s="68" t="s">
+      <c r="K77" t="s">
         <v>1359</v>
       </c>
-      <c r="L77" s="68" t="s">
+      <c r="L77" t="s">
         <v>1460</v>
       </c>
-      <c r="M77" s="68" t="s">
+      <c r="M77" t="s">
         <v>1492</v>
       </c>
-      <c r="N77" s="68" t="s">
+      <c r="N77" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="68" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="68" t="s">
+      <c r="B78" t="s">
         <v>1510</v>
       </c>
-      <c r="C78" s="68" t="s">
+      <c r="C78" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" t="s">
         <v>481</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="68" t="s">
+      <c r="F78" t="s">
         <v>1514</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H78" s="68">
+      <c r="H78">
         <f>_xlfn.XLOOKUP(E78,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="I78" s="68" t="str">
+      <c r="I78" t="str">
         <f>_xlfn.XLOOKUP(C78,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the CharDistributionAnalysis::HandleOneChar function in Mozilla Firefox before 18.0, Thunderbird before 17.0.2, and SeaMonkey before 2.15 allows remote attackers to execute arbitrary code via a crafted document.</v>
       </c>
-      <c r="K78" s="68" t="s">
+      <c r="K78" t="s">
         <v>1359</v>
       </c>
-      <c r="L78" s="68" t="s">
+      <c r="L78" t="s">
         <v>1460</v>
       </c>
-      <c r="M78" s="68" t="s">
+      <c r="M78" t="s">
         <v>1492</v>
       </c>
-      <c r="N78" s="68" t="s">
+      <c r="N78" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="68" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="B79" t="s">
         <v>1510</v>
       </c>
-      <c r="C79" s="68" t="s">
+      <c r="C79" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" t="s">
         <v>481</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F79" s="68" t="s">
+      <c r="F79" t="s">
         <v>1514</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H79" s="68">
+      <c r="H79">
         <f>_xlfn.XLOOKUP(E79,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="I79" s="68" t="str">
+      <c r="I79" t="str">
         <f>_xlfn.XLOOKUP(C79,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the CharDistributionAnalysis::HandleOneChar function in Mozilla Firefox before 18.0, Thunderbird before 17.0.2, and SeaMonkey before 2.15 allows remote attackers to execute arbitrary code via a crafted document.</v>
       </c>
-      <c r="K79" s="68" t="s">
+      <c r="K79" t="s">
         <v>1359</v>
       </c>
-      <c r="L79" s="68" t="s">
+      <c r="L79" t="s">
         <v>1460</v>
       </c>
-      <c r="M79" s="68" t="s">
+      <c r="M79" t="s">
         <v>1492</v>
       </c>
-      <c r="N79" s="68" t="s">
+      <c r="N79" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="68" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" t="s">
         <v>1510</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" t="s">
         <v>481</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F80" s="68" t="s">
+      <c r="F80" t="s">
         <v>1514</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H80" s="68">
+      <c r="H80">
         <f>_xlfn.XLOOKUP(E80,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="I80" s="68" t="str">
+      <c r="I80" t="str">
         <f>_xlfn.XLOOKUP(C80,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the CharDistributionAnalysis::HandleOneChar function in Mozilla Firefox before 18.0, Thunderbird before 17.0.2, and SeaMonkey before 2.15 allows remote attackers to execute arbitrary code via a crafted document.</v>
       </c>
-      <c r="K80" s="68" t="s">
+      <c r="K80" t="s">
         <v>1359</v>
       </c>
-      <c r="L80" s="68" t="s">
+      <c r="L80" t="s">
         <v>1460</v>
       </c>
-      <c r="M80" s="68" t="s">
+      <c r="M80" t="s">
         <v>1492</v>
       </c>
-      <c r="N80" s="68" t="s">
+      <c r="N80" t="s">
         <v>834</v>
       </c>
     </row>
@@ -23398,7 +23528,7 @@
       <c r="G81" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H81" s="68">
+      <c r="H81">
         <f>_xlfn.XLOOKUP(E81,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
@@ -23461,44 +23591,44 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="G83" s="41" t="s">
+      <c r="G83" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H83" s="17">
         <f>_xlfn.XLOOKUP(E83,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I83" s="29" t="str">
+      <c r="I83" s="28" t="str">
         <f>_xlfn.XLOOKUP(C83,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Heap-based buffer overflow in the gfxTextRun::ShrinkToLigatureBoundaries function in Mozilla Firefox before 18.0, Firefox ESR 17.x before 17.0.1, Thunderbird before 17.0.2, Thunderbird ESR 17.x before 17.0.1, and SeaMonkey before 2.15 allows remote attackers to execute arbitrary code via a crafted document.</v>
       </c>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29" t="s">
+      <c r="J83" s="28"/>
+      <c r="K83" s="28" t="s">
         <v>1361</v>
       </c>
-      <c r="L83" s="29" t="s">
+      <c r="L83" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -23538,44 +23668,44 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="G85" s="41" t="s">
+      <c r="G85" s="40" t="s">
         <v>503</v>
       </c>
       <c r="H85" s="17">
         <f>_xlfn.XLOOKUP(E85,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I85" s="29" t="str">
+      <c r="I85" s="28" t="str">
         <f>_xlfn.XLOOKUP(C85,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The ClusterIterator::NextCluster function in Mozilla Firefox before 19.0, Thunderbird before 17.0.3, and SeaMonkey before 2.16 allows remote attackers to execute arbitrary code or cause a denial of service (out-of-bounds read) via unspecified vectors.</v>
       </c>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29" t="s">
+      <c r="J85" s="28"/>
+      <c r="K85" s="28" t="s">
         <v>1154</v>
       </c>
-      <c r="L85" s="29" t="s">
+      <c r="L85" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -23643,48 +23773,54 @@
         <f>_xlfn.XLOOKUP(E87,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K87" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F88" s="40" t="s">
+      <c r="F88" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="G88" s="41" t="s">
+      <c r="G88" s="40" t="s">
         <v>503</v>
       </c>
       <c r="H88" s="17">
         <f>_xlfn.XLOOKUP(E88,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I88" s="29" t="str">
+      <c r="I88" s="28" t="str">
         <f>_xlfn.XLOOKUP(C88,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the Mozilla Maintenance Service in Mozilla Firefox before 20.0, Firefox ESR 17.x before 17.0.5, Thunderbird before 17.0.5, and Thunderbird ESR 17.x before 17.0.5 on Windows allows local users to gain privileges via crafted arguments.</v>
       </c>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29" t="s">
+      <c r="J88" s="28"/>
+      <c r="K88" s="28" t="s">
         <v>1157</v>
       </c>
-      <c r="L88" s="29" t="s">
+      <c r="L88" s="28" t="s">
         <v>1344</v>
       </c>
-      <c r="M88" s="34" t="s">
+      <c r="M88" s="33" t="s">
         <v>1158</v>
       </c>
-      <c r="N88" s="29"/>
+      <c r="N88" s="28"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -23705,7 +23841,7 @@
       <c r="F89" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="41" t="s">
+      <c r="G89" s="40" t="s">
         <v>502</v>
       </c>
       <c r="H89" s="17">
@@ -23730,22 +23866,22 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="53" t="s">
         <v>506</v>
       </c>
       <c r="G90" s="23" t="s">
@@ -23755,21 +23891,21 @@
         <f>_xlfn.XLOOKUP(E90,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I90" s="29" t="str">
+      <c r="I90" s="28" t="str">
         <f>_xlfn.XLOOKUP(C90,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Use-after-free vulnerability in the nsFrameList::FirstChild function in Mozilla Firefox before 21.0, Firefox ESR 17.x before 17.0.6, Thunderbird before 17.0.6, and Thunderbird ESR 17.x before 17.0.6 allows remote attackers to execute arbitrary code or cause a denial of service (heap memory corruption) via unspecified vectors.</v>
       </c>
-      <c r="J90" s="29"/>
-      <c r="K90" s="42" t="s">
+      <c r="J90" s="28"/>
+      <c r="K90" s="41" t="s">
         <v>1362</v>
       </c>
-      <c r="L90" s="29" t="s">
+      <c r="L90" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M90" s="29" t="s">
+      <c r="M90" s="28" t="s">
         <v>1459</v>
       </c>
-      <c r="N90" s="29"/>
+      <c r="N90" s="28"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -23804,14 +23940,14 @@
       <c r="K91" s="11" t="s">
         <v>1363</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="28" t="s">
         <v>1460</v>
       </c>
       <c r="N91" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>130</v>
       </c>
@@ -23842,136 +23978,145 @@
         <v>Stack-based buffer overflow in maintenanceservice.exe in the Mozilla Maintenance Service in Mozilla Firefox before 23.0, Firefox ESR 17.x before 17.0.8, Thunderbird before 17.0.8, and Thunderbird ESR 17.x before 17.0.8 allows local users to gain privileges via a long pathname on the command line.</v>
       </c>
       <c r="J92" s="17"/>
-      <c r="K92" s="28" t="s">
+      <c r="K92" s="27" t="s">
         <v>1364</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="51" t="s">
+      <c r="L92" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M92" s="50" t="s">
         <v>1158</v>
       </c>
       <c r="N92" s="17" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="68" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" t="s">
         <v>1510</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" t="s">
         <v>131</v>
       </c>
-      <c r="D93" s="68" t="s">
+      <c r="D93" t="s">
         <v>485</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F93" s="69" t="s">
+      <c r="F93" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H93" s="68">
+      <c r="H93">
         <f>_xlfn.XLOOKUP(E93,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
-      <c r="I93" s="68" t="str">
+      <c r="I93" t="str">
         <f>_xlfn.XLOOKUP(C93,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in maintenanceservice.exe in the Mozilla Maintenance Service in Mozilla Firefox before 23.0, Firefox ESR 17.x before 17.0.8, Thunderbird before 17.0.8, and Thunderbird ESR 17.x before 17.0.8 allows local users to gain privileges via a long pathname on the command line.</v>
       </c>
-      <c r="K93" s="37" t="s">
+      <c r="K93" s="36" t="s">
         <v>1364</v>
       </c>
-      <c r="M93" s="71" t="s">
+      <c r="L93" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M93" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N93" s="68" t="s">
+      <c r="N93" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="68" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" t="s">
         <v>1510</v>
       </c>
-      <c r="C94" s="68" t="s">
+      <c r="C94" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="68" t="s">
+      <c r="D94" t="s">
         <v>485</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="69" t="s">
+      <c r="F94" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H94" s="68">
+      <c r="H94">
         <f>_xlfn.XLOOKUP(E94,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
-      <c r="I94" s="68" t="str">
+      <c r="I94" t="str">
         <f>_xlfn.XLOOKUP(C94,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in maintenanceservice.exe in the Mozilla Maintenance Service in Mozilla Firefox before 23.0, Firefox ESR 17.x before 17.0.8, Thunderbird before 17.0.8, and Thunderbird ESR 17.x before 17.0.8 allows local users to gain privileges via a long pathname on the command line.</v>
       </c>
-      <c r="K94" s="37" t="s">
+      <c r="K94" s="36" t="s">
         <v>1364</v>
       </c>
-      <c r="M94" s="71" t="s">
+      <c r="L94" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M94" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N94" s="68" t="s">
+      <c r="N94" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A95" s="68" t="s">
+      <c r="A95" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" t="s">
         <v>1510</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="68" t="s">
+      <c r="D95" t="s">
         <v>485</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F95" s="69" t="s">
+      <c r="F95" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H95" s="68">
+      <c r="H95">
         <f>_xlfn.XLOOKUP(E95,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
-      <c r="I95" s="68" t="str">
+      <c r="I95" t="str">
         <f>_xlfn.XLOOKUP(C95,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in maintenanceservice.exe in the Mozilla Maintenance Service in Mozilla Firefox before 23.0, Firefox ESR 17.x before 17.0.8, Thunderbird before 17.0.8, and Thunderbird ESR 17.x before 17.0.8 allows local users to gain privileges via a long pathname on the command line.</v>
       </c>
-      <c r="J95" s="68"/>
-      <c r="K95" s="37" t="s">
+      <c r="K95" s="36" t="s">
         <v>1364</v>
       </c>
-      <c r="L95" s="68"/>
-      <c r="M95" s="71" t="s">
+      <c r="L95" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M95" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N95" s="68" t="s">
+      <c r="N95" t="s">
         <v>766</v>
       </c>
     </row>
@@ -24001,6 +24146,12 @@
         <f>_xlfn.XLOOKUP(E96,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>5</v>
       </c>
+      <c r="K96" s="22" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>1460</v>
+      </c>
       <c r="M96" s="25"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -24069,6 +24220,9 @@
         <f>_xlfn.XLOOKUP(E98,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K98" s="22" t="s">
+        <v>1365</v>
+      </c>
       <c r="L98" s="22" t="s">
         <v>1460</v>
       </c>
@@ -24077,44 +24231,44 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G99" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H99" s="17">
         <f>_xlfn.XLOOKUP(E99,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="I99" s="29" t="str">
+      <c r="I99" s="28" t="str">
         <f>_xlfn.XLOOKUP(C99,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Integer overflow in the drawLineLoop function in the libGLESv2 library in Almost Native Graphics Layer Engine (ANGLE), as used in Mozilla Firefox before 24.0 and SeaMonkey before 2.21, allows remote attackers to execute arbitrary code via a crafted web site.</v>
       </c>
-      <c r="J99" s="29"/>
-      <c r="K99" s="42" t="s">
+      <c r="J99" s="28"/>
+      <c r="K99" s="41" t="s">
         <v>1366</v>
       </c>
-      <c r="L99" s="29" t="s">
+      <c r="L99" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29" t="s">
+      <c r="M99" s="28"/>
+      <c r="N99" s="28" t="s">
         <v>812</v>
       </c>
     </row>
@@ -24184,6 +24338,12 @@
         <f>_xlfn.XLOOKUP(E101,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K101" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1460</v>
+      </c>
       <c r="N101" t="s">
         <v>668</v>
       </c>
@@ -24214,6 +24374,12 @@
         <f>_xlfn.XLOOKUP(E102,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K102" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1460</v>
+      </c>
       <c r="N102" t="s">
         <v>675</v>
       </c>
@@ -24244,48 +24410,54 @@
         <f>_xlfn.XLOOKUP(E103,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K103" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G104" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H104" s="17">
         <f>_xlfn.XLOOKUP(E104,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I104" s="29" t="str">
+      <c r="I104" s="28" t="str">
         <f>_xlfn.XLOOKUP(C104,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the nsFloatManager::GetFlowArea function in Mozilla Firefox before 24.0, Firefox ESR 17.x before 17.0.9, Thunderbird before 24.0, Thunderbird ESR 17.x before 17.0.9, and SeaMonkey before 2.21 allows remote attackers to execute arbitrary code via crafted use of lists and floats within a multi-column layout.</v>
       </c>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29" t="s">
+      <c r="J104" s="28"/>
+      <c r="K104" s="28" t="s">
         <v>1368</v>
       </c>
-      <c r="L104" s="29" t="s">
+      <c r="L104" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M104" s="29" t="s">
+      <c r="M104" s="28" t="s">
         <v>1462</v>
       </c>
-      <c r="N104" s="29"/>
+      <c r="N104" s="28"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
@@ -24327,7 +24499,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>148</v>
       </c>
@@ -24358,7 +24530,7 @@
         <v>The cycle collection (CC) implementation in Mozilla Firefox before 25.0, Firefox ESR 24.x before 24.1, Thunderbird before 24.1, and SeaMonkey before 2.22 does not properly determine the thread for release of an image object, which allows remote attackers to execute arbitrary code or cause a denial of service (race condition and application crash) via a large HTML document containing IMG elements, as demonstrated by the Never-Ending Reddit on reddit.com.</v>
       </c>
       <c r="J106" s="17"/>
-      <c r="K106" s="28" t="s">
+      <c r="K106" s="27" t="s">
         <v>1370</v>
       </c>
       <c r="L106" s="17" t="s">
@@ -24391,7 +24563,7 @@
       <c r="G107" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="H107" s="68">
+      <c r="H107">
         <f>_xlfn.XLOOKUP(E107,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
@@ -24473,7 +24645,7 @@
       <c r="G109" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="63">
         <f>_xlfn.XLOOKUP(E109,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
@@ -24517,6 +24689,12 @@
         <f>_xlfn.XLOOKUP(E110,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
+      <c r="K110" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -24544,6 +24722,12 @@
         <f>_xlfn.XLOOKUP(E111,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
+      <c r="K111" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -24571,6 +24755,12 @@
         <f>_xlfn.XLOOKUP(E112,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
+      <c r="K112" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
@@ -24603,7 +24793,7 @@
         <v>The libxul.so!gfxContext::Polygon function in Mozilla Firefox before 28.0, Firefox ESR 24.x before 24.4, Thunderbird before 24.4, and SeaMonkey before 2.25 allows remote attackers to obtain sensitive information from process memory, cause a denial of service (out-of-bounds read and application crash), or possibly bypass the Same Origin Policy via vectors involving MathML polygon rendering.</v>
       </c>
       <c r="J113" s="17"/>
-      <c r="K113" s="28" t="s">
+      <c r="K113" s="27" t="s">
         <v>1372</v>
       </c>
       <c r="L113" s="17" t="s">
@@ -24638,7 +24828,12 @@
         <f>_xlfn.XLOOKUP(E114,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="K114" s="37"/>
+      <c r="K114" s="36" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
@@ -24671,7 +24866,7 @@
         <v>The nsXBLProtoImpl::InstallImplementation function in Mozilla Firefox before 29.0, Firefox ESR 24.x before 24.5, Thunderbird before 24.5, and SeaMonkey before 2.26 does not properly check whether objects are XBL objects, which allows remote attackers to execute arbitrary code or cause a denial of service (buffer overflow) via crafted JavaScript code that accesses a non-XBL object as if it were an XBL object.</v>
       </c>
       <c r="J115" s="17"/>
-      <c r="K115" s="28" t="s">
+      <c r="K115" s="27" t="s">
         <v>1373</v>
       </c>
       <c r="L115" s="17" t="s">
@@ -24708,8 +24903,14 @@
         <f>_xlfn.XLOOKUP(E116,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K116" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
         <v>160</v>
       </c>
@@ -24806,7 +25007,7 @@
       <c r="D119" t="s">
         <v>481</v>
       </c>
-      <c r="E119" s="36" t="s">
+      <c r="E119" s="35" t="s">
         <v>165</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -24856,7 +25057,12 @@
         <f>_xlfn.XLOOKUP(E120,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="K120" s="11"/>
+      <c r="K120" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
@@ -24884,6 +25090,9 @@
         <f>_xlfn.XLOOKUP(E121,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K121" t="s">
+        <v>1375</v>
+      </c>
       <c r="L121" t="s">
         <v>1460</v>
       </c>
@@ -24914,6 +25123,9 @@
         <f>_xlfn.XLOOKUP(E122,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K122" t="s">
+        <v>1375</v>
+      </c>
       <c r="L122" t="s">
         <v>1460</v>
       </c>
@@ -24984,6 +25196,9 @@
         <f>_xlfn.XLOOKUP(E124,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K124" t="s">
+        <v>1376</v>
+      </c>
       <c r="L124" t="s">
         <v>1460</v>
       </c>
@@ -24992,19 +25207,19 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="17" t="s">
         <v>1510</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="21" t="s">
         <v>171</v>
       </c>
       <c r="F125" s="20" t="s">
@@ -25013,7 +25228,7 @@
       <c r="G125" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="H125" s="17">
+      <c r="H125" s="55">
         <f>_xlfn.XLOOKUP(E125,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
@@ -25022,7 +25237,7 @@
         <v>The nsTSubstring::ReplacePrep function in Mozilla Firefox before 40.0, Firefox ESR 38.x before 38.2, and Firefox OS before 2.2 might allow remote attackers to cause a denial of service (memory corruption) or possibly have unspecified other impact via unknown vectors, related to an "overflow."</v>
       </c>
       <c r="J125" s="17"/>
-      <c r="K125" s="28" t="s">
+      <c r="K125" s="27" t="s">
         <v>1377</v>
       </c>
       <c r="L125" s="17" t="s">
@@ -25036,46 +25251,45 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="22" t="s">
         <v>1510</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="54" t="s">
         <v>506</v>
       </c>
-      <c r="G126" s="21" t="s">
+      <c r="G126" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H126" s="17">
+      <c r="H126">
         <f>_xlfn.XLOOKUP(E126,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-      <c r="I126" s="17" t="str">
+      <c r="I126" s="22" t="str">
         <f>_xlfn.XLOOKUP(C126,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The nsTSubstring::ReplacePrep function in Mozilla Firefox before 40.0, Firefox ESR 38.x before 38.2, and Firefox OS before 2.2 might allow remote attackers to cause a denial of service (memory corruption) or possibly have unspecified other impact via unknown vectors, related to an "overflow."</v>
       </c>
-      <c r="J126" s="17"/>
-      <c r="K126" s="28" t="s">
+      <c r="K126" s="26" t="s">
         <v>1377</v>
       </c>
-      <c r="L126" s="17" t="s">
+      <c r="L126" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M126" s="17" t="s">
+      <c r="M126" t="s">
         <v>1495</v>
       </c>
-      <c r="N126" s="17" t="s">
+      <c r="N126" s="22" t="s">
         <v>801</v>
       </c>
     </row>
@@ -25092,7 +25306,7 @@
       <c r="D127" t="s">
         <v>481</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F127" s="20" t="s">
@@ -25120,39 +25334,41 @@
       <c r="N127" s="17"/>
     </row>
     <row r="128" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="62" t="s">
+      <c r="A128" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B128" s="62" t="s">
+      <c r="B128" s="59" t="s">
         <v>1510</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D128" s="62" t="s">
+      <c r="D128" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="E128" s="63" t="s">
+      <c r="E128" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="F128" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="G128" s="63" t="s">
+      <c r="G128" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="H128" s="62">
+      <c r="H128" s="59">
         <f>_xlfn.XLOOKUP(E128,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="62" t="s">
+      <c r="I128" s="59"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L128" s="59" t="s">
         <v>1460</v>
       </c>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
+      <c r="M128" s="59"/>
+      <c r="N128" s="59"/>
     </row>
     <row r="129" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A129" s="22" t="s">
@@ -25259,7 +25475,7 @@
       <c r="G131" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H131" s="17">
+      <c r="H131" s="63">
         <f>_xlfn.XLOOKUP(E131,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
@@ -25302,7 +25518,7 @@
       <c r="G132" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H132" s="17">
+      <c r="H132">
         <f>_xlfn.XLOOKUP(E132,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
@@ -25349,7 +25565,9 @@
         <f>_xlfn.XLOOKUP(E133,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="K133" s="11"/>
+      <c r="K133" s="11" t="s">
+        <v>1496</v>
+      </c>
       <c r="L133" t="s">
         <v>1460</v>
       </c>
@@ -25383,7 +25601,12 @@
         <f>_xlfn.XLOOKUP(E134,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="K134" s="11"/>
+      <c r="K134" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="22" t="s">
@@ -25413,8 +25636,12 @@
       </c>
       <c r="I135" s="22"/>
       <c r="J135" s="22"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="22"/>
+      <c r="K135" s="26" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1460</v>
+      </c>
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
     </row>
@@ -25451,7 +25678,7 @@
       <c r="K136" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" s="17" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -25483,7 +25710,9 @@
       </c>
       <c r="I137" s="22"/>
       <c r="J137" s="22"/>
-      <c r="K137" s="22"/>
+      <c r="K137" s="22" t="s">
+        <v>1330</v>
+      </c>
       <c r="L137" s="22" t="s">
         <v>1460</v>
       </c>
@@ -25492,138 +25721,150 @@
       </c>
       <c r="N137" s="22"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="138" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="F138" s="27" t="s">
+      <c r="F138" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G138" s="70" t="s">
         <v>503</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="9">
         <f>_xlfn.XLOOKUP(E138,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I138" t="str">
+      <c r="I138" s="9" t="str">
         <f>_xlfn.XLOOKUP(C138,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The LDT implementation in the Linux kernel 2.6.25.x before 2.6.25.11 on x86_64 platforms uses an incorrect size for ldt_desc, which allows local users to cause a denial of service (system crash) or possibly gain privileges via unspecified vectors.</v>
       </c>
-      <c r="K138" s="11" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L138" t="s">
+      <c r="K138" s="76" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L138" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" s="9" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="139" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="51" t="s">
         <v>186</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="9">
         <f>_xlfn.XLOOKUP(E139,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A140" s="17" t="s">
+      <c r="K139" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="20" t="s">
         <v>1511</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="F140" s="27" t="s">
+      <c r="F140" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G140" s="70" t="s">
         <v>503</v>
       </c>
-      <c r="H140" s="17">
+      <c r="H140" s="20">
         <f>_xlfn.XLOOKUP(E140,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I140" s="17" t="str">
+      <c r="I140" s="20" t="str">
         <f>_xlfn.XLOOKUP(C140,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The proc_do_xprt function in net/sunrpc/sysctl.c in the Linux kernel 2.6.26.3 does not check the length of a certain buffer obtained from userspace, which allows local users to overflow a stack-based buffer and have unspecified other impact via a crafted read system call for the /proc/sys/sunrpc/transports file.</v>
       </c>
-      <c r="J140" s="17"/>
-      <c r="K140" s="28" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L140" s="17" t="s">
+      <c r="J140" s="20"/>
+      <c r="K140" s="77" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L140" s="20" t="s">
         <v>1460</v>
       </c>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A141" s="17" t="s">
+      <c r="M140" s="20"/>
+      <c r="N140" s="20"/>
+    </row>
+    <row r="141" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="24" t="s">
         <v>1511</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="9">
         <f>_xlfn.XLOOKUP(E141,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -25657,7 +25898,7 @@
         <v>Buffer overflow in nfsd in the Linux kernel before 2.6.26.4, when NFSv4 is enabled, allows remote attackers to have an unknown impact via vectors related to decoding an NFSv4 acl.</v>
       </c>
       <c r="J142" s="17"/>
-      <c r="K142" s="28" t="s">
+      <c r="K142" s="27" t="s">
         <v>1331</v>
       </c>
       <c r="L142" s="17" t="s">
@@ -25688,7 +25929,7 @@
       <c r="G143" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H143" s="29">
+      <c r="H143" s="28">
         <f>_xlfn.XLOOKUP(E143,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -25707,44 +25948,44 @@
       <c r="N143" s="17"/>
     </row>
     <row r="144" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D144" s="29" t="s">
+      <c r="D144" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="E144" s="30" t="s">
+      <c r="E144" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="F144" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G144" s="30" t="s">
+      <c r="G144" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H144" s="29">
+      <c r="H144" s="28">
         <f>_xlfn.XLOOKUP(E144,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I144" s="29" t="str">
+      <c r="I144" s="28" t="str">
         <f>_xlfn.XLOOKUP(C144,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in the hfs_cat_find_brec function in fs/hfs/catalog.c in the Linux kernel before 2.6.28-rc1 allows attackers to cause a denial of service (memory corruption or system crash) via an hfs filesystem image with an invalid catalog namelength field, a related issue to CVE-2008-4933.</v>
       </c>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29" t="s">
+      <c r="J144" s="28"/>
+      <c r="K144" s="28" t="s">
         <v>1333</v>
       </c>
-      <c r="L144" s="29" t="s">
+      <c r="L144" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
@@ -25776,7 +26017,7 @@
         <f>_xlfn.XLOOKUP(C145,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the lbs_process_bss function in drivers/net/wireless/libertas/scan.c in the libertas subsystem in the Linux kernel before 2.6.27.5 allows remote attackers to have an unknown impact via an "invalid beacon/probe response."</v>
       </c>
-      <c r="K145" s="37" t="s">
+      <c r="K145" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="L145" t="s">
@@ -25802,12 +26043,15 @@
       <c r="F146" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="52" t="s">
+      <c r="G146" s="51" t="s">
         <v>503</v>
       </c>
       <c r="H146">
         <f>_xlfn.XLOOKUP(E146,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1334</v>
       </c>
       <c r="L146" t="s">
         <v>1460</v>
@@ -25847,7 +26091,7 @@
         <v>The parisc_show_stack function in arch/parisc/kernel/traps.c in the Linux kernel before 2.6.28-rc7 on PA-RISC allows local users to cause a denial of service (system crash) via vectors associated with an attempt to unwind a stack that contains userspace addresses.</v>
       </c>
       <c r="J147" s="17"/>
-      <c r="K147" s="28" t="s">
+      <c r="K147" s="27" t="s">
         <v>1335</v>
       </c>
       <c r="L147" s="17" t="s">
@@ -25884,6 +26128,12 @@
         <f>_xlfn.XLOOKUP(E148,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K148" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L148" s="68" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
@@ -25907,7 +26157,7 @@
       <c r="G149" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="H149" s="29">
+      <c r="H149" s="28">
         <f>_xlfn.XLOOKUP(E149,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -25947,7 +26197,7 @@
       <c r="G150" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H150" s="29">
+      <c r="H150" s="28">
         <f>_xlfn.XLOOKUP(E150,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26008,44 +26258,44 @@
       <c r="N151" s="17"/>
     </row>
     <row r="152" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C152" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E152" s="30" t="s">
+      <c r="E152" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="F152" s="31" t="s">
+      <c r="F152" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="30" t="s">
+      <c r="G152" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H152" s="29">
+      <c r="H152" s="28">
         <f>_xlfn.XLOOKUP(E152,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I152" s="29" t="str">
+      <c r="I152" s="28" t="str">
         <f>_xlfn.XLOOKUP(C152,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The ip_frag_reasm function in net/ipv4/ip_fragment.c in the Linux kernel 2.6.32-rc8, and 2.6.29 and later versions before 2.6.32, calls IP_INC_STATS_BH with an incorrect argument, which allows remote attackers to cause a denial of service (NULL pointer dereference and hang) via long IP packets, possibly related to the ip_defrag function.</v>
       </c>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29" t="s">
+      <c r="J152" s="28"/>
+      <c r="K152" s="28" t="s">
         <v>1339</v>
       </c>
-      <c r="L152" s="29" t="s">
+      <c r="L152" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M152" s="29"/>
-      <c r="N152" s="29"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
@@ -26069,7 +26319,7 @@
       <c r="G153" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H153" s="29">
+      <c r="H153" s="28">
         <f>_xlfn.XLOOKUP(E153,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26077,7 +26327,7 @@
         <f>_xlfn.XLOOKUP(C153,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the RTL8169 NIC driver (drivers/net/r8169.c) in the Linux kernel before 2.6.30 allows remote attackers to cause a denial of service (kernel memory corruption and crash) via a long packet.</v>
       </c>
-      <c r="K153" s="37" t="s">
+      <c r="K153" s="36" t="s">
         <v>1340</v>
       </c>
       <c r="L153" t="s">
@@ -26106,7 +26356,7 @@
       <c r="G154" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="H154" s="29">
+      <c r="H154" s="28">
         <f>_xlfn.XLOOKUP(E154,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
@@ -26127,44 +26377,44 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A155" s="29" t="s">
+      <c r="A155" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="B155" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C155" s="29" t="s">
+      <c r="C155" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D155" s="29" t="s">
+      <c r="D155" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E155" s="30" t="s">
+      <c r="E155" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F155" s="31" t="s">
+      <c r="F155" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G155" s="30" t="s">
+      <c r="G155" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H155">
         <f>_xlfn.XLOOKUP(E155,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I155" s="29" t="str">
+      <c r="I155" s="28" t="str">
         <f>_xlfn.XLOOKUP(C155,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The tun_chr_poll function in drivers/net/tun.c in the tun subsystem in the Linux kernel 2.6.30 and 2.6.30.1, when the -fno-delete-null-pointer-checks gcc option is omitted, allows local users to gain privileges via vectors involving a NULL pointer dereference and an mmap of /dev/net/tun, a different vulnerability than CVE-2009-1894.</v>
       </c>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29" t="s">
+      <c r="J155" s="28"/>
+      <c r="K155" s="28" t="s">
         <v>1341</v>
       </c>
-      <c r="L155" s="29" t="s">
+      <c r="L155" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="17" t="s">
@@ -26188,7 +26438,7 @@
       <c r="G156" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H156" s="29">
+      <c r="H156" s="28">
         <f>_xlfn.XLOOKUP(E156,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26228,7 +26478,7 @@
       <c r="G157" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H157" s="29">
+      <c r="H157" s="28">
         <f>_xlfn.XLOOKUP(E157,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26268,7 +26518,7 @@
       <c r="G158" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H158" s="29">
+      <c r="H158" s="28">
         <f>_xlfn.XLOOKUP(E158,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26277,7 +26527,7 @@
         <v>The init_posix_timers function in kernel/posix-timers.c in the Linux kernel before 2.6.31-rc6 allows local users to cause a denial of service (OOPS) or possibly gain privileges via a CLOCK_MONOTONIC_RAW clock_nanosleep call that triggers a NULL pointer dereference.</v>
       </c>
       <c r="J158" s="17"/>
-      <c r="K158" s="28" t="s">
+      <c r="K158" s="27" t="s">
         <v>1380</v>
       </c>
       <c r="L158" s="17" t="s">
@@ -26308,7 +26558,7 @@
       <c r="G159" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="H159" s="29">
+      <c r="H159" s="28">
         <f>_xlfn.XLOOKUP(E159,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26327,44 +26577,44 @@
       <c r="N159" s="17"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D160" s="29" t="s">
+      <c r="D160" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E160" s="30" t="s">
+      <c r="E160" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F160" s="31" t="s">
+      <c r="F160" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="30" t="s">
+      <c r="G160" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H160">
         <f>_xlfn.XLOOKUP(E160,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I160" s="29" t="str">
+      <c r="I160" s="28" t="str">
         <f>_xlfn.XLOOKUP(C160,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Integer signedness error in the find_ie function in net/wireless/scan.c in the cfg80211 subsystem in the Linux kernel before 2.6.31.1-rc1 allows remote attackers to cause a denial of service (soft lockup) via malformed packets.</v>
       </c>
-      <c r="J160" s="29"/>
-      <c r="K160" s="42" t="s">
+      <c r="J160" s="28"/>
+      <c r="K160" s="41" t="s">
         <v>1382</v>
       </c>
-      <c r="L160" s="29" t="s">
+      <c r="L160" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="22" t="s">
@@ -26388,7 +26638,7 @@
       <c r="G161" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H161" s="29">
+      <c r="H161" s="28">
         <f>_xlfn.XLOOKUP(E161,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -26419,7 +26669,7 @@
       <c r="D162" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="E162" s="33" t="s">
+      <c r="E162" s="32" t="s">
         <v>247</v>
       </c>
       <c r="F162" s="24" t="s">
@@ -26446,132 +26696,132 @@
       <c r="M162" s="22"/>
       <c r="N162" s="22"/>
     </row>
-    <row r="163" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="68" t="s">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>248</v>
       </c>
-      <c r="B163" s="68" t="s">
+      <c r="B163" t="s">
         <v>1511</v>
       </c>
-      <c r="C163" s="68" t="s">
+      <c r="C163" t="s">
         <v>249</v>
       </c>
-      <c r="D163" s="70" t="s">
+      <c r="D163" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F163" s="69" t="s">
+      <c r="F163" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H163" s="68">
+      <c r="H163">
         <f>_xlfn.XLOOKUP(E163,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
-      <c r="I163" s="68" t="str">
+      <c r="I163" t="str">
         <f>_xlfn.XLOOKUP(C163,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Linux kernel 2.6.18 through 2.6.33, and possibly other versions, allows remote attackers to cause a denial of service (memory corruption) via a large number of Bluetooth sockets, related to the size of sysfs files in (1) net/bluetooth/l2cap.c, (2) net/bluetooth/rfcomm/core.c, (3) net/bluetooth/rfcomm/sock.c, and (4) net/bluetooth/sco.c.</v>
       </c>
-      <c r="K163" s="68" t="s">
+      <c r="K163" t="s">
         <v>1385</v>
       </c>
-      <c r="L163" s="68" t="s">
+      <c r="L163" t="s">
         <v>1460</v>
       </c>
-      <c r="M163" s="71" t="s">
+      <c r="M163" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N163" s="68" t="s">
+      <c r="N163" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="68" t="s">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>248</v>
       </c>
-      <c r="B164" s="68" t="s">
+      <c r="B164" t="s">
         <v>1511</v>
       </c>
-      <c r="C164" s="68" t="s">
+      <c r="C164" t="s">
         <v>249</v>
       </c>
-      <c r="D164" s="70" t="s">
+      <c r="D164" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F164" s="69" t="s">
+      <c r="F164" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H164" s="68">
+      <c r="H164">
         <f>_xlfn.XLOOKUP(E164,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
-      <c r="I164" s="68" t="str">
+      <c r="I164" t="str">
         <f>_xlfn.XLOOKUP(C164,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Linux kernel 2.6.18 through 2.6.33, and possibly other versions, allows remote attackers to cause a denial of service (memory corruption) via a large number of Bluetooth sockets, related to the size of sysfs files in (1) net/bluetooth/l2cap.c, (2) net/bluetooth/rfcomm/core.c, (3) net/bluetooth/rfcomm/sock.c, and (4) net/bluetooth/sco.c.</v>
       </c>
-      <c r="K164" s="68" t="s">
+      <c r="K164" t="s">
         <v>1385</v>
       </c>
-      <c r="L164" s="68" t="s">
+      <c r="L164" t="s">
         <v>1460</v>
       </c>
-      <c r="M164" s="71" t="s">
+      <c r="M164" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N164" s="68" t="s">
+      <c r="N164" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="68" t="s">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>248</v>
       </c>
-      <c r="B165" s="68" t="s">
+      <c r="B165" t="s">
         <v>1511</v>
       </c>
-      <c r="C165" s="68" t="s">
+      <c r="C165" t="s">
         <v>249</v>
       </c>
-      <c r="D165" s="70" t="s">
+      <c r="D165" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F165" s="69" t="s">
+      <c r="F165" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H165" s="68">
+      <c r="H165">
         <f>_xlfn.XLOOKUP(E165,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
-      <c r="I165" s="68" t="str">
+      <c r="I165" t="str">
         <f>_xlfn.XLOOKUP(C165,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Linux kernel 2.6.18 through 2.6.33, and possibly other versions, allows remote attackers to cause a denial of service (memory corruption) via a large number of Bluetooth sockets, related to the size of sysfs files in (1) net/bluetooth/l2cap.c, (2) net/bluetooth/rfcomm/core.c, (3) net/bluetooth/rfcomm/sock.c, and (4) net/bluetooth/sco.c.</v>
       </c>
-      <c r="K165" s="68" t="s">
+      <c r="K165" t="s">
         <v>1385</v>
       </c>
-      <c r="L165" s="68" t="s">
+      <c r="L165" t="s">
         <v>1460</v>
       </c>
-      <c r="M165" s="71" t="s">
+      <c r="M165" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="N165" s="68" t="s">
+      <c r="N165" t="s">
         <v>916</v>
       </c>
     </row>
@@ -26585,10 +26835,10 @@
       <c r="C166" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="E166" s="33" t="s">
+      <c r="E166" s="32" t="s">
         <v>250</v>
       </c>
       <c r="F166" s="24" t="s">
@@ -26638,7 +26888,7 @@
       <c r="F167" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="G167" s="52" t="s">
+      <c r="G167" s="51" t="s">
         <v>503</v>
       </c>
       <c r="H167">
@@ -26685,49 +26935,52 @@
         <f>_xlfn.XLOOKUP(E168,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K168" t="s">
+        <v>1386</v>
+      </c>
       <c r="L168" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A169" s="29" t="s">
+      <c r="A169" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D169" s="29" t="s">
+      <c r="D169" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="F169" s="31" t="s">
+      <c r="F169" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G169" s="30" t="s">
+      <c r="G169" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H169" s="29">
+      <c r="H169" s="28">
         <f>_xlfn.XLOOKUP(E169,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I169" s="29" t="str">
+      <c r="I169" s="28" t="str">
         <f>_xlfn.XLOOKUP(C169,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Multiple buffer overflows in fs/nfsd/nfs4xdr.c in the XDR implementation in the NFS server in the Linux kernel before 2.6.34-rc6 allow remote attackers to cause a denial of service (panic) or possibly execute arbitrary code via a crafted NFSv4 compound WRITE request, related to the read_buf and nfsd4_decode_compound functions.</v>
       </c>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29" t="s">
+      <c r="J169" s="28"/>
+      <c r="K169" s="28" t="s">
         <v>1387</v>
       </c>
-      <c r="L169" s="29" t="s">
+      <c r="L169" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
@@ -26751,7 +27004,7 @@
       <c r="G170" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H170" s="29">
+      <c r="H170" s="28">
         <f>_xlfn.XLOOKUP(E170,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>10</v>
       </c>
@@ -26773,44 +27026,44 @@
       </c>
     </row>
     <row r="171" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D171" s="29" t="s">
+      <c r="D171" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F171" s="31" t="s">
+      <c r="F171" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G171" s="30" t="s">
+      <c r="G171" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H171" s="29">
+      <c r="H171" s="28">
         <f>_xlfn.XLOOKUP(E171,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I171" s="29" t="str">
+      <c r="I171" s="28" t="str">
         <f>_xlfn.XLOOKUP(C171,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the niu_get_ethtool_tcam_all function in drivers/net/niu.c in the Linux kernel before 2.6.36-rc4 allows local users to cause a denial of service or possibly have unspecified other impact via the ETHTOOL_GRXCLSRLALL ethtool command.</v>
       </c>
-      <c r="J171" s="29"/>
-      <c r="K171" s="42" t="s">
+      <c r="J171" s="28"/>
+      <c r="K171" s="41" t="s">
         <v>1389</v>
       </c>
-      <c r="L171" s="29" t="s">
+      <c r="L171" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
@@ -26845,7 +27098,7 @@
       <c r="K172" s="11" t="s">
         <v>1390</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="M172" t="s">
@@ -26878,48 +27131,54 @@
         <f>_xlfn.XLOOKUP(E173,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
+      <c r="K173" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L173" s="22" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A174" s="29" t="s">
+      <c r="A174" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B174" s="29" t="s">
+      <c r="B174" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D174" s="29" t="s">
+      <c r="D174" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="F174" s="31" t="s">
+      <c r="F174" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G174" s="30" t="s">
+      <c r="G174" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H174" s="29">
+      <c r="H174" s="28">
         <f>_xlfn.XLOOKUP(E174,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I174" s="29" t="str">
+      <c r="I174" s="28" t="str">
         <f>_xlfn.XLOOKUP(C174,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Heap-based buffer overflow in the bcm_connect function in net/can/bcm.c (aka the Broadcast Manager) in the Controller Area Network (CAN) implementation in the Linux kernel before 2.6.36.2 on 64-bit platforms might allow local users to cause a denial of service (memory corruption) via a connect operation.</v>
       </c>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29" t="s">
+      <c r="J174" s="28"/>
+      <c r="K174" s="28" t="s">
         <v>1391</v>
       </c>
-      <c r="L174" s="29" t="s">
+      <c r="L174" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M174" s="29" t="s">
+      <c r="M174" s="28" t="s">
         <v>1471</v>
       </c>
-      <c r="N174" s="29"/>
+      <c r="N174" s="28"/>
     </row>
     <row r="175" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="22" t="s">
@@ -26943,7 +27202,7 @@
       <c r="G175" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H175" s="29">
+      <c r="H175" s="28">
         <f>_xlfn.XLOOKUP(E175,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27017,13 +27276,13 @@
       <c r="E177" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F177" s="54" t="s">
+      <c r="F177" s="53" t="s">
         <v>1514</v>
       </c>
-      <c r="G177" s="30" t="s">
+      <c r="G177" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H177" s="29">
+      <c r="H177" s="28">
         <f>_xlfn.XLOOKUP(E177,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27039,90 +27298,90 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A178" s="29" t="s">
+      <c r="A178" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="17" t="s">
         <v>1511</v>
       </c>
-      <c r="C178" s="29" t="s">
+      <c r="C178" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D178" s="29" t="s">
+      <c r="D178" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="E178" s="30" t="s">
+      <c r="E178" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F178" s="55" t="s">
+      <c r="F178" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H178" s="29">
+      <c r="H178" s="17">
         <f>_xlfn.XLOOKUP(E178,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-      <c r="I178" s="29" t="str">
+      <c r="I178" s="17" t="str">
         <f>_xlfn.XLOOKUP(C178,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Multiple buffer overflows in the caiaq Native Instruments USB audio functionality in the Linux kernel before 2.6.38-rc4-next-20110215 might allow attackers to cause a denial of service or possibly have unspecified other impact via a long USB device name, related to (1) the snd_usb_caiaq_audio_init function in sound/usb/caiaq/audio.c and (2) the snd_usb_caiaq_midi_init function in sound/usb/caiaq/midi.c.</v>
       </c>
-      <c r="J178" s="29"/>
-      <c r="K178" s="42" t="s">
+      <c r="J178" s="17"/>
+      <c r="K178" s="27" t="s">
         <v>1395</v>
       </c>
-      <c r="L178" s="29" t="s">
+      <c r="L178" s="17" t="s">
         <v>1460</v>
       </c>
-      <c r="M178" s="34" t="s">
+      <c r="M178" s="50" t="s">
         <v>1499</v>
       </c>
-      <c r="N178" s="29" t="s">
+      <c r="N178" s="17" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A179" s="29" t="s">
+      <c r="A179" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B179" s="29" t="s">
+      <c r="B179" s="22" t="s">
         <v>1511</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D179" s="29" t="s">
+      <c r="D179" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E179" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F179" s="55" t="s">
+      <c r="F179" s="54" t="s">
         <v>506</v>
       </c>
       <c r="G179" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H179" s="29">
+      <c r="H179" s="22">
         <f>_xlfn.XLOOKUP(E179,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-      <c r="I179" s="29" t="str">
+      <c r="I179" s="22" t="str">
         <f>_xlfn.XLOOKUP(C179,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Multiple buffer overflows in the caiaq Native Instruments USB audio functionality in the Linux kernel before 2.6.38-rc4-next-20110215 might allow attackers to cause a denial of service or possibly have unspecified other impact via a long USB device name, related to (1) the snd_usb_caiaq_audio_init function in sound/usb/caiaq/audio.c and (2) the snd_usb_caiaq_midi_init function in sound/usb/caiaq/midi.c.</v>
       </c>
-      <c r="J179" s="29"/>
-      <c r="K179" s="42" t="s">
+      <c r="J179" s="22"/>
+      <c r="K179" s="26" t="s">
         <v>1395</v>
       </c>
-      <c r="L179" s="29" t="s">
+      <c r="L179" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M179" s="34" t="s">
+      <c r="M179" s="25" t="s">
         <v>1499</v>
       </c>
-      <c r="N179" s="29" t="s">
+      <c r="N179" s="22" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -27142,7 +27401,7 @@
       <c r="E180" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F180" s="55" t="s">
+      <c r="F180" s="54" t="s">
         <v>498</v>
       </c>
       <c r="G180" s="23" t="s">
@@ -27167,44 +27426,44 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A181" s="29" t="s">
+      <c r="A181" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="29" t="s">
+      <c r="B181" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="F181" s="31" t="s">
+      <c r="F181" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G181" s="30" t="s">
+      <c r="G181" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H181" s="17">
         <f>_xlfn.XLOOKUP(E181,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I181" s="29" t="str">
+      <c r="I181" s="28" t="str">
         <f>_xlfn.XLOOKUP(C181,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The ib_uverbs_poll_cq function in drivers/infiniband/core/uverbs_cmd.c in the Linux kernel before 2.6.37 does not initialize a certain response buffer, which allows local users to obtain potentially sensitive information from kernel memory via vectors that cause this buffer to be only partially filled, a different vulnerability than CVE-2010-4649.</v>
       </c>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29" t="s">
+      <c r="J181" s="28"/>
+      <c r="K181" s="28" t="s">
         <v>1397</v>
       </c>
-      <c r="L181" s="29" t="s">
+      <c r="L181" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="28"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
@@ -27228,7 +27487,7 @@
       <c r="G182" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H182" s="29">
+      <c r="H182" s="28">
         <f>_xlfn.XLOOKUP(E182,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27244,44 +27503,44 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A183" s="29" t="s">
+      <c r="A183" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B183" s="29" t="s">
+      <c r="B183" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C183" s="29" t="s">
+      <c r="C183" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="D183" s="29" t="s">
+      <c r="D183" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="E183" s="30" t="s">
+      <c r="E183" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F183" s="31" t="s">
+      <c r="F183" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G183" s="30" t="s">
+      <c r="G183" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H183" s="22">
         <f>_xlfn.XLOOKUP(E183,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I183" s="29" t="str">
+      <c r="I183" s="28" t="str">
         <f>_xlfn.XLOOKUP(C183,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Multiple array index errors in sound/oss/opl3.c in the Linux kernel before 2.6.39 allow local users to cause a denial of service (heap memory corruption) or possibly gain privileges by leveraging write access to /dev/sequencer.</v>
       </c>
-      <c r="J183" s="29"/>
-      <c r="K183" s="29" t="s">
+      <c r="J183" s="28"/>
+      <c r="K183" s="28" t="s">
         <v>1399</v>
       </c>
-      <c r="L183" s="29" t="s">
+      <c r="L183" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M183" s="29"/>
-      <c r="N183" s="29"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
@@ -27305,7 +27564,7 @@
       <c r="G184" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H184" s="29">
+      <c r="H184" s="28">
         <f>_xlfn.XLOOKUP(E184,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27324,44 +27583,44 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B185" s="29" t="s">
+      <c r="B185" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C185" s="29" t="s">
+      <c r="C185" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="D185" s="29" t="s">
+      <c r="D185" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="E185" s="30" t="s">
+      <c r="E185" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F185" s="31" t="s">
+      <c r="F185" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G185" s="30" t="s">
+      <c r="G185" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H185">
         <f>_xlfn.XLOOKUP(E185,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I185" s="29" t="str">
+      <c r="I185" s="28" t="str">
         <f>_xlfn.XLOOKUP(C185,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The ldm_frag_add function in fs/partitions/ldm.c in the Linux kernel before 2.6.39.1 does not properly handle memory allocation for non-initial fragments, which might allow local users to conduct buffer overflow attacks, and gain privileges or obtain sensitive information, via a crafted LDM partition table.  NOTE: this vulnerability exists because of an incomplete fix for CVE-2011-1017.</v>
       </c>
-      <c r="J185" s="29"/>
-      <c r="K185" s="29" t="s">
+      <c r="J185" s="28"/>
+      <c r="K185" s="28" t="s">
         <v>1401</v>
       </c>
-      <c r="L185" s="29" t="s">
+      <c r="L185" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
@@ -27385,7 +27644,7 @@
       <c r="G186" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H186" s="29">
+      <c r="H186" s="28">
         <f>_xlfn.XLOOKUP(E186,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27401,44 +27660,44 @@
       </c>
     </row>
     <row r="187" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="29" t="s">
+      <c r="A187" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="B187" s="29" t="s">
+      <c r="B187" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C187" s="29" t="s">
+      <c r="C187" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D187" s="29" t="s">
+      <c r="D187" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="F187" s="31" t="s">
+      <c r="F187" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G187" s="30" t="s">
+      <c r="G187" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H187" s="22">
         <f>_xlfn.XLOOKUP(E187,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I187" s="29" t="str">
+      <c r="I187" s="28" t="str">
         <f>_xlfn.XLOOKUP(C187,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the clusterip_proc_write function in net/ipv4/netfilter/ipt_CLUSTERIP.c in the Linux kernel before 2.6.39 might allow local users to cause a denial of service or have unspecified other impact via a crafted write operation, related to string data that lacks a terminating '\0' character.</v>
       </c>
-      <c r="J187" s="29"/>
-      <c r="K187" s="42" t="s">
+      <c r="J187" s="28"/>
+      <c r="K187" s="41" t="s">
         <v>1403</v>
       </c>
-      <c r="L187" s="29" t="s">
+      <c r="L187" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M187" s="29"/>
-      <c r="N187" s="29"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
@@ -27478,46 +27737,46 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A189" s="29" t="s">
+      <c r="A189" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C189" s="29" t="s">
+      <c r="C189" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D189" s="29" t="s">
+      <c r="D189" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F189" s="31" t="s">
+      <c r="F189" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G189" s="30" t="s">
+      <c r="G189" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H189" s="29">
+      <c r="H189" s="28">
         <f>_xlfn.XLOOKUP(E189,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I189" s="29" t="str">
+      <c r="I189" s="28" t="str">
         <f>_xlfn.XLOOKUP(C189,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the fuse_notify_inval_entry function in fs/fuse/dev.c in the Linux kernel before 3.1 allows local users to cause a denial of service (BUG_ON and system crash) by leveraging the ability to mount a FUSE filesystem.</v>
       </c>
-      <c r="J189" s="29"/>
-      <c r="K189" s="42" t="s">
+      <c r="J189" s="28"/>
+      <c r="K189" s="41" t="s">
         <v>1405</v>
       </c>
-      <c r="L189" s="29" t="s">
+      <c r="L189" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M189" s="29" t="s">
+      <c r="M189" s="28" t="s">
         <v>1474</v>
       </c>
-      <c r="N189" s="29"/>
+      <c r="N189" s="28"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
@@ -27585,6 +27844,9 @@
         <f>_xlfn.XLOOKUP(E191,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
+      <c r="K191" t="s">
+        <v>1406</v>
+      </c>
       <c r="L191" t="s">
         <v>1460</v>
       </c>
@@ -27593,44 +27855,44 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A192" s="29" t="s">
+      <c r="A192" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C192" s="29" t="s">
+      <c r="C192" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="D192" s="29" t="s">
+      <c r="D192" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E192" s="30" t="s">
+      <c r="E192" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F192" s="31" t="s">
+      <c r="F192" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G192" s="30" t="s">
+      <c r="G192" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H192" s="29">
+      <c r="H192" s="28">
         <f>_xlfn.XLOOKUP(E192,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I192" s="29" t="str">
+      <c r="I192" s="28" t="str">
         <f>_xlfn.XLOOKUP(C192,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The journal_unmap_buffer function in fs/jbd2/transaction.c in the Linux kernel before 3.3.1 does not properly handle the _Delay and _Unwritten buffer head states, which allows local users to cause a denial of service (system crash) by leveraging the presence of an ext4 filesystem that was mounted with a journal.</v>
       </c>
-      <c r="J192" s="29"/>
-      <c r="K192" s="29" t="s">
+      <c r="J192" s="28"/>
+      <c r="K192" s="28" t="s">
         <v>1407</v>
       </c>
-      <c r="L192" s="29" t="s">
+      <c r="L192" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M192" s="29"/>
-      <c r="N192" s="29"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
@@ -27691,13 +27953,16 @@
       <c r="F194" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G194" s="52" t="s">
+      <c r="G194" s="51" t="s">
         <v>503</v>
       </c>
       <c r="H194">
         <f>_xlfn.XLOOKUP(E194,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K194" t="s">
+        <v>1408</v>
+      </c>
       <c r="L194" t="s">
         <v>1460</v>
       </c>
@@ -27724,13 +27989,16 @@
       <c r="F195" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="G195" s="52" t="s">
+      <c r="G195" s="51" t="s">
         <v>502</v>
       </c>
       <c r="H195">
         <f>_xlfn.XLOOKUP(E195,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K195" t="s">
+        <v>1408</v>
+      </c>
       <c r="L195" t="s">
         <v>1460</v>
       </c>
@@ -27742,46 +28010,46 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A196" s="29" t="s">
+      <c r="A196" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B196" s="29" t="s">
+      <c r="B196" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C196" s="29" t="s">
+      <c r="C196" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D196" s="29" t="s">
+      <c r="D196" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="E196" s="30" t="s">
+      <c r="E196" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F196" s="31" t="s">
+      <c r="F196" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G196" s="30" t="s">
+      <c r="G196" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H196" s="29">
+      <c r="H196" s="28">
         <f>_xlfn.XLOOKUP(E196,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I196" s="29" t="str">
+      <c r="I196" s="28" t="str">
         <f>_xlfn.XLOOKUP(C196,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The bat_socket_read function in net/batman-adv/icmp_socket.c in the Linux kernel before 3.3 allows remote attackers to cause a denial of service (memory corruption) or possibly have unspecified other impact via a crafted batman-adv ICMP packet.</v>
       </c>
-      <c r="J196" s="29"/>
-      <c r="K196" s="42" t="s">
+      <c r="J196" s="28"/>
+      <c r="K196" s="41" t="s">
         <v>1409</v>
       </c>
-      <c r="L196" s="29" t="s">
+      <c r="L196" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M196" s="29" t="s">
+      <c r="M196" s="28" t="s">
         <v>1475</v>
       </c>
-      <c r="N196" s="29"/>
+      <c r="N196" s="28"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
@@ -27824,44 +28092,44 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A198" s="29" t="s">
+      <c r="A198" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B198" s="29" t="s">
+      <c r="B198" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C198" s="29" t="s">
+      <c r="C198" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="D198" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E198" s="30" t="s">
+      <c r="E198" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F198" s="31" t="s">
+      <c r="F198" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G198" s="30" t="s">
+      <c r="G198" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H198" s="17">
         <f>_xlfn.XLOOKUP(E198,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I198" s="29" t="str">
+      <c r="I198" s="28" t="str">
         <f>_xlfn.XLOOKUP(C198,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>fs/proc/root.c in the procfs implementation in the Linux kernel before 3.2 does not properly interact with CLONE_NEWPID clone system calls, which allows remote attackers to cause a denial of service (reference leak and memory consumption) by making many connections to a daemon that uses PID namespaces to isolate clients, as demonstrated by vsftpd.</v>
       </c>
-      <c r="J198" s="29"/>
-      <c r="K198" s="29" t="s">
+      <c r="J198" s="28"/>
+      <c r="K198" s="28" t="s">
         <v>1411</v>
       </c>
-      <c r="L198" s="29" t="s">
+      <c r="L198" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M198" s="29"/>
-      <c r="N198" s="29"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
@@ -27882,7 +28150,7 @@
       <c r="F199" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="G199" s="30" t="s">
+      <c r="G199" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H199" s="17">
@@ -27901,44 +28169,44 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A200" s="29" t="s">
+      <c r="A200" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B200" s="29" t="s">
+      <c r="B200" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="C200" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="D200" s="29" t="s">
+      <c r="D200" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E200" s="30" t="s">
+      <c r="E200" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="F200" s="31" t="s">
+      <c r="F200" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G200" s="30" t="s">
+      <c r="G200" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H200" s="29">
+      <c r="H200" s="28">
         <f>_xlfn.XLOOKUP(E200,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I200" s="29" t="str">
+      <c r="I200" s="28" t="str">
         <f>_xlfn.XLOOKUP(C200,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The copy_creds function in kernel/cred.c in the Linux kernel before 3.3.2 provides an invalid replacement session keyring to a child process, which allows local users to cause a denial of service (panic) via a crafted application that uses the fork system call.</v>
       </c>
-      <c r="J200" s="29"/>
-      <c r="K200" s="29" t="s">
+      <c r="J200" s="28"/>
+      <c r="K200" s="28" t="s">
         <v>1413</v>
       </c>
-      <c r="L200" s="29" t="s">
+      <c r="L200" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M200" s="29"/>
-      <c r="N200" s="29"/>
+      <c r="M200" s="28"/>
+      <c r="N200" s="28"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
@@ -27962,7 +28230,7 @@
       <c r="G201" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H201" s="29">
+      <c r="H201" s="28">
         <f>_xlfn.XLOOKUP(E201,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -27978,44 +28246,44 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A202" s="29" t="s">
+      <c r="A202" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B202" s="29" t="s">
+      <c r="B202" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C202" s="29" t="s">
+      <c r="C202" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="D202" s="29" t="s">
+      <c r="D202" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E202" s="30" t="s">
+      <c r="E202" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="F202" s="31" t="s">
+      <c r="F202" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="G202" s="30" t="s">
+      <c r="G202" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H202" s="29">
+      <c r="H202" s="28">
         <f>_xlfn.XLOOKUP(E202,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I202" s="29" t="str">
+      <c r="I202" s="28" t="str">
         <f>_xlfn.XLOOKUP(C202,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>arch/x86/include/asm/pgtable.h in the Linux kernel before 3.6.2, when transparent huge pages are used, does not properly support PROT_NONE memory regions, which allows local users to cause a denial of service (system crash) via a crafted application.</v>
       </c>
-      <c r="J202" s="29"/>
-      <c r="K202" s="42" t="s">
+      <c r="J202" s="28"/>
+      <c r="K202" s="41" t="s">
         <v>1415</v>
       </c>
-      <c r="L202" s="29" t="s">
+      <c r="L202" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M202" s="29"/>
-      <c r="N202" s="29"/>
+      <c r="M202" s="28"/>
+      <c r="N202" s="28"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
@@ -28039,7 +28307,7 @@
       <c r="G203" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H203" s="29">
+      <c r="H203" s="28">
         <f>_xlfn.XLOOKUP(E203,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -28055,44 +28323,44 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A204" s="29" t="s">
+      <c r="A204" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C204" s="29" t="s">
+      <c r="C204" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D204" s="29" t="s">
+      <c r="D204" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E204" s="30" t="s">
+      <c r="E204" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="F204" s="31" t="s">
+      <c r="F204" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G204" s="30" t="s">
+      <c r="G204" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H204" s="29">
+      <c r="H204" s="28">
         <f>_xlfn.XLOOKUP(E204,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>2</v>
       </c>
-      <c r="I204" s="29" t="str">
+      <c r="I204" s="28" t="str">
         <f>_xlfn.XLOOKUP(C204,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The log_prefix function in kernel/printk.c in the Linux kernel 3.x before 3.4.33 does not properly remove a prefix string from a syslog header, which allows local users to cause a denial of service (buffer overflow and system crash) by leveraging /dev/kmsg write access and triggering a call_console_drivers function call.</v>
       </c>
-      <c r="J204" s="29"/>
-      <c r="K204" s="29" t="s">
+      <c r="J204" s="28"/>
+      <c r="K204" s="28" t="s">
         <v>1417</v>
       </c>
-      <c r="L204" s="29" t="s">
+      <c r="L204" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M204" s="29"/>
-      <c r="N204" s="29" t="s">
+      <c r="M204" s="28"/>
+      <c r="N204" s="28" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -28129,7 +28397,7 @@
       <c r="K205" s="11" t="s">
         <v>1418</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="17" t="s">
         <v>1460</v>
       </c>
       <c r="M205" t="s">
@@ -28165,7 +28433,12 @@
         <f>_xlfn.XLOOKUP(E206,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
-      <c r="K206" s="11"/>
+      <c r="K206" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L206" s="68" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
@@ -28193,46 +28466,52 @@
         <f>_xlfn.XLOOKUP(E207,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>4</v>
       </c>
+      <c r="K207" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L207" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A208" s="29" t="s">
+      <c r="A208" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B208" s="29" t="s">
+      <c r="B208" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D208" s="29" t="s">
+      <c r="D208" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="E208" s="30" t="s">
+      <c r="E208" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="F208" s="31" t="s">
+      <c r="F208" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G208" s="30" t="s">
+      <c r="G208" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H208" s="29">
+      <c r="H208" s="28">
         <f>_xlfn.XLOOKUP(E208,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I208" s="29" t="str">
+      <c r="I208" s="28" t="str">
         <f>_xlfn.XLOOKUP(C208,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The kvm_set_msr_common function in arch/x86/kvm/x86.c in the Linux kernel through 3.8.4 does not ensure a required time_page alignment during an MSR_KVM_SYSTEM_TIME operation, which allows guest OS users to cause a denial of service (buffer overflow and host OS memory corruption) or possibly have unspecified other impact via a crafted application.</v>
       </c>
-      <c r="J208" s="29"/>
-      <c r="K208" s="29" t="s">
+      <c r="J208" s="28"/>
+      <c r="K208" s="28" t="s">
         <v>1419</v>
       </c>
-      <c r="L208" s="29" t="s">
+      <c r="L208" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M208" s="29"/>
-      <c r="N208" s="29"/>
+      <c r="M208" s="28"/>
+      <c r="N208" s="28"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
@@ -28272,46 +28551,46 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A210" s="29" t="s">
+      <c r="A210" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="B210" s="29" t="s">
+      <c r="B210" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C210" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="D210" s="29" t="s">
+      <c r="D210" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E210" s="30" t="s">
+      <c r="E210" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F210" s="31" t="s">
+      <c r="F210" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G210" s="30" t="s">
+      <c r="G210" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H210">
         <f>_xlfn.XLOOKUP(E210,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I210" s="29" t="str">
+      <c r="I210" s="28" t="str">
         <f>_xlfn.XLOOKUP(C210,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Heap-based buffer overflow in the tg3_read_vpd function in drivers/net/ethernet/broadcom/tg3.c in the Linux kernel before 3.8.6 allows physically proximate attackers to cause a denial of service (system crash) or possibly execute arbitrary code via crafted firmware that specifies a long string in the Vital Product Data (VPD) data structure.</v>
       </c>
-      <c r="J210" s="29"/>
-      <c r="K210" s="29" t="s">
+      <c r="J210" s="28"/>
+      <c r="K210" s="28" t="s">
         <v>1421</v>
       </c>
-      <c r="L210" s="29" t="s">
+      <c r="L210" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M210" s="29" t="s">
+      <c r="M210" s="28" t="s">
         <v>1477</v>
       </c>
-      <c r="N210" s="29"/>
+      <c r="N210" s="28"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
@@ -28351,44 +28630,44 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A212" s="29" t="s">
+      <c r="A212" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C212" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D212" s="29" t="s">
+      <c r="D212" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E212" s="30" t="s">
+      <c r="E212" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F212" s="31" t="s">
+      <c r="F212" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G212" s="30" t="s">
+      <c r="G212" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H212" s="29">
+      <c r="H212" s="28">
         <f>_xlfn.XLOOKUP(E212,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I212" s="29" t="str">
+      <c r="I212" s="28" t="str">
         <f>_xlfn.XLOOKUP(C212,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The tcp_read_sock function in net/ipv4/tcp.c in the Linux kernel before 2.6.34 does not properly manage skb consumption, which allows local users to cause a denial of service (system crash) via a crafted splice system call for a TCP socket.</v>
       </c>
-      <c r="J212" s="29"/>
-      <c r="K212" s="29" t="s">
+      <c r="J212" s="28"/>
+      <c r="K212" s="28" t="s">
         <v>1423</v>
       </c>
-      <c r="L212" s="29" t="s">
+      <c r="L212" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M212" s="29"/>
-      <c r="N212" s="29"/>
+      <c r="M212" s="28"/>
+      <c r="N212" s="28"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
@@ -28406,10 +28685,10 @@
       <c r="E213" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F213" s="31" t="s">
+      <c r="F213" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G213" s="30" t="s">
+      <c r="G213" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H213">
@@ -28428,44 +28707,44 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A214" s="29" t="s">
+      <c r="A214" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="B214" s="29" t="s">
+      <c r="B214" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="C214" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D214" s="29" t="s">
+      <c r="D214" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E214" s="30" t="s">
+      <c r="E214" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="F214" s="31" t="s">
+      <c r="F214" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="G214" s="30" t="s">
+      <c r="G214" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H214" s="29">
+      <c r="H214" s="28">
         <f>_xlfn.XLOOKUP(E214,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I214" s="29" t="str">
+      <c r="I214" s="28" t="str">
         <f>_xlfn.XLOOKUP(C214,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The key_notify_policy_flush function in net/key/af_key.c in the Linux kernel before 3.9 does not initialize a certain structure member, which allows local users to obtain sensitive information from kernel heap memory by reading a broadcast message from the notify_policy interface of an IPSec key_socket.</v>
       </c>
-      <c r="J214" s="29"/>
-      <c r="K214" s="29" t="s">
+      <c r="J214" s="28"/>
+      <c r="K214" s="28" t="s">
         <v>1425</v>
       </c>
-      <c r="L214" s="29" t="s">
+      <c r="L214" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M214" s="29"/>
-      <c r="N214" s="29"/>
+      <c r="M214" s="28"/>
+      <c r="N214" s="28"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
@@ -28510,7 +28789,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="216" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="17" t="s">
         <v>374</v>
       </c>
@@ -28552,43 +28831,43 @@
         <v>966</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="68" t="s">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>374</v>
       </c>
-      <c r="B217" s="68" t="s">
+      <c r="B217" t="s">
         <v>1511</v>
       </c>
-      <c r="C217" s="68" t="s">
+      <c r="C217" t="s">
         <v>375</v>
       </c>
-      <c r="D217" s="68" t="s">
+      <c r="D217" t="s">
         <v>493</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F217" s="69" t="s">
+      <c r="F217" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H217" s="68">
+      <c r="H217">
         <f>_xlfn.XLOOKUP(E217,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="I217" s="68" t="str">
+      <c r="I217" t="str">
         <f>_xlfn.XLOOKUP(C217,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The Linux kernel before 4.4.1 allows local users to bypass file-descriptor limits and cause a denial of service (memory consumption) by sending each descriptor over a UNIX socket before closing it, related to net/unix/af_unix.c and net/unix/garbage.c.</v>
       </c>
-      <c r="K217" s="68" t="s">
+      <c r="K217" t="s">
         <v>1427</v>
       </c>
-      <c r="L217" s="68" t="s">
+      <c r="L217" t="s">
         <v>1460</v>
       </c>
-      <c r="N217" s="68" t="s">
+      <c r="N217" t="s">
         <v>967</v>
       </c>
     </row>
@@ -28667,7 +28946,7 @@
       <c r="K219" s="11" t="s">
         <v>1428</v>
       </c>
-      <c r="L219" t="s">
+      <c r="L219" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="M219" t="s">
@@ -28700,7 +28979,12 @@
         <f>_xlfn.XLOOKUP(E220,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="K220" s="11"/>
+      <c r="K220" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L220" s="68" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
@@ -28728,51 +29012,54 @@
         <f>_xlfn.XLOOKUP(E221,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="L221" t="s">
+      <c r="K221" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L221" s="22" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A222" s="29" t="s">
+      <c r="A222" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="B222" s="29" t="s">
+      <c r="B222" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C222" s="29" t="s">
+      <c r="C222" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="D222" s="29" t="s">
+      <c r="D222" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="F222" s="31" t="s">
+      <c r="F222" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G222" s="30" t="s">
+      <c r="G222" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H222" s="29">
+      <c r="H222" s="28">
         <f>_xlfn.XLOOKUP(E222,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I222" s="29" t="str">
+      <c r="I222" s="28" t="str">
         <f>_xlfn.XLOOKUP(C222,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the exitcode_proc_write function in arch/um/kernel/exitcode.c in the Linux kernel before 3.12 allows local users to cause a denial of service or possibly have unspecified other impact by leveraging root privileges for a write operation.</v>
       </c>
-      <c r="J222" s="29"/>
-      <c r="K222" s="29" t="s">
+      <c r="J222" s="28"/>
+      <c r="K222" s="28" t="s">
         <v>1429</v>
       </c>
-      <c r="L222" s="29" t="s">
+      <c r="L222" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M222" s="29" t="s">
+      <c r="M222" s="28" t="s">
         <v>1479</v>
       </c>
-      <c r="N222" s="29"/>
+      <c r="N222" s="28"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
@@ -28796,7 +29083,7 @@
       <c r="G223" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H223" s="29">
+      <c r="H223" s="28">
         <f>_xlfn.XLOOKUP(E223,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -28807,49 +29094,49 @@
       <c r="K223" t="s">
         <v>1430</v>
       </c>
-      <c r="L223" t="s">
+      <c r="L223" s="22" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A224" s="29" t="s">
+      <c r="A224" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="B224" s="29" t="s">
+      <c r="B224" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="D224" s="29" t="s">
+      <c r="D224" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E224" s="30" t="s">
+      <c r="E224" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="F224" s="31" t="s">
+      <c r="F224" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G224" s="30" t="s">
+      <c r="G224" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H224" s="29">
+      <c r="H224" s="28">
         <f>_xlfn.XLOOKUP(E224,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I224" s="29" t="str">
+      <c r="I224" s="28" t="str">
         <f>_xlfn.XLOOKUP(C224,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Multiple buffer overflows in drivers/staging/wlags49_h2/wl_priv.c in the Linux kernel before 3.12 allow local users to cause a denial of service or possibly have unspecified other impact by leveraging the CAP_NET_ADMIN capability and providing a long station-name string, related to the (1) wvlan_uil_put_info and (2) wvlan_set_station_nickname functions.</v>
       </c>
-      <c r="J224" s="29"/>
-      <c r="K224" s="29" t="s">
+      <c r="J224" s="28"/>
+      <c r="K224" s="28" t="s">
         <v>1431</v>
       </c>
-      <c r="L224" s="29" t="s">
+      <c r="L224" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M224" s="29"/>
-      <c r="N224" s="29"/>
+      <c r="M224" s="28"/>
+      <c r="N224" s="28"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="17" t="s">
@@ -28885,7 +29172,7 @@
       <c r="K225" s="17" t="s">
         <v>1432</v>
       </c>
-      <c r="L225" s="17" t="s">
+      <c r="L225" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="M225" s="17"/>
@@ -28919,7 +29206,9 @@
       </c>
       <c r="I226" s="22"/>
       <c r="J226" s="22"/>
-      <c r="K226" s="22"/>
+      <c r="K226" s="22" t="s">
+        <v>1432</v>
+      </c>
       <c r="L226" s="22" t="s">
         <v>1460</v>
       </c>
@@ -28948,7 +29237,7 @@
       <c r="G227" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H227" s="29">
+      <c r="H227" s="28">
         <f>_xlfn.XLOOKUP(E227,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -28959,49 +29248,49 @@
       <c r="K227" t="s">
         <v>1433</v>
       </c>
-      <c r="L227" t="s">
+      <c r="L227" s="22" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A228" s="29" t="s">
+      <c r="A228" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="B228" s="29" t="s">
+      <c r="B228" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C228" s="29" t="s">
+      <c r="C228" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="D228" s="29" t="s">
+      <c r="D228" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E228" s="30" t="s">
+      <c r="E228" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="F228" s="31" t="s">
+      <c r="F228" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G228" s="30" t="s">
+      <c r="G228" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H228" s="29">
+      <c r="H228" s="28">
         <f>_xlfn.XLOOKUP(E228,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I228" s="29" t="str">
+      <c r="I228" s="28" t="str">
         <f>_xlfn.XLOOKUP(C228,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Buffer overflow in the qeth_snmp_command function in drivers/s390/net/qeth_core_main.c in the Linux kernel through 3.12.1 allows local users to cause a denial of service or possibly have unspecified other impact via an SNMP ioctl call with a length value that is incompatible with the command-buffer size.</v>
       </c>
-      <c r="J228" s="29"/>
-      <c r="K228" s="29" t="s">
+      <c r="J228" s="28"/>
+      <c r="K228" s="28" t="s">
         <v>1434</v>
       </c>
-      <c r="L228" s="29" t="s">
+      <c r="L228" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M228" s="29"/>
-      <c r="N228" s="29"/>
+      <c r="M228" s="28"/>
+      <c r="N228" s="28"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
@@ -29025,7 +29314,7 @@
       <c r="G229" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H229" s="55">
         <f>_xlfn.XLOOKUP(E229,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
@@ -29036,7 +29325,7 @@
       <c r="K229" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="L229" t="s">
+      <c r="L229" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="N229" t="s">
@@ -29065,7 +29354,7 @@
       <c r="G230" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H230" s="17">
+      <c r="H230" s="63">
         <f>_xlfn.XLOOKUP(E230,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
@@ -29076,7 +29365,7 @@
       <c r="K230" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="L230" t="s">
+      <c r="L230" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="N230" t="s">
@@ -29105,7 +29394,7 @@
       <c r="G231" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H231" s="17">
+      <c r="H231">
         <f>_xlfn.XLOOKUP(E231,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
@@ -29116,7 +29405,7 @@
       <c r="K231" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L231" s="68" t="s">
         <v>1460</v>
       </c>
       <c r="N231" t="s">
@@ -29149,7 +29438,12 @@
         <f>_xlfn.XLOOKUP(E232,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="K232" s="11"/>
+      <c r="K232" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L232" s="68" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
@@ -29177,6 +29471,12 @@
         <f>_xlfn.XLOOKUP(E233,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
+      <c r="K233" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L233" s="22" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="17" t="s">
@@ -29191,7 +29491,7 @@
       <c r="D234" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E234" s="36" t="s">
+      <c r="E234" s="19" t="s">
         <v>403</v>
       </c>
       <c r="F234" s="20" t="s">
@@ -29212,7 +29512,7 @@
       <c r="K234" s="17" t="s">
         <v>1436</v>
       </c>
-      <c r="L234" s="17" t="s">
+      <c r="L234" s="28" t="s">
         <v>1460</v>
       </c>
       <c r="M234" s="17"/>
@@ -29228,10 +29528,10 @@
       <c r="C235" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D235" s="32" t="s">
+      <c r="D235" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="E235" s="33" t="s">
+      <c r="E235" s="32" t="s">
         <v>403</v>
       </c>
       <c r="F235" s="24" t="s">
@@ -29246,7 +29546,9 @@
       </c>
       <c r="I235" s="22"/>
       <c r="J235" s="22"/>
-      <c r="K235" s="22"/>
+      <c r="K235" s="22" t="s">
+        <v>1436</v>
+      </c>
       <c r="L235" s="22" t="s">
         <v>1460</v>
       </c>
@@ -29275,7 +29577,7 @@
       <c r="G236" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H236" s="29">
+      <c r="H236" s="28">
         <f>_xlfn.XLOOKUP(E236,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -29294,44 +29596,44 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A237" s="29" t="s">
+      <c r="A237" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="B237" s="29" t="s">
+      <c r="B237" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C237" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="D237" s="29" t="s">
+      <c r="D237" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="E237" s="30" t="s">
+      <c r="E237" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="F237" s="31" t="s">
+      <c r="F237" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G237" s="30" t="s">
+      <c r="G237" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H237" s="29">
+      <c r="H237" s="28">
         <f>_xlfn.XLOOKUP(E237,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I237" s="29" t="str">
+      <c r="I237" s="28" t="str">
         <f>_xlfn.XLOOKUP(C237,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The cifs_iovec_write function in fs/cifs/file.c in the Linux kernel through 3.13.5 does not properly handle uncached write operations that copy fewer than the requested number of bytes, which allows local users to obtain sensitive information from kernel memory, cause a denial of service (memory corruption and system crash), or possibly gain privileges via a writev system call with a crafted pointer.</v>
       </c>
-      <c r="J237" s="29"/>
-      <c r="K237" s="29" t="s">
+      <c r="J237" s="28"/>
+      <c r="K237" s="28" t="s">
         <v>1438</v>
       </c>
-      <c r="L237" s="29" t="s">
+      <c r="L237" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M237" s="29"/>
-      <c r="N237" s="29"/>
+      <c r="M237" s="28"/>
+      <c r="N237" s="28"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
@@ -29349,7 +29651,7 @@
       <c r="E238" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F238" s="31" t="s">
+      <c r="F238" s="30" t="s">
         <v>506</v>
       </c>
       <c r="G238" s="4" t="s">
@@ -29371,44 +29673,44 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A239" s="29" t="s">
+      <c r="A239" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B239" s="29" t="s">
+      <c r="B239" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C239" s="29" t="s">
+      <c r="C239" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D239" s="29" t="s">
+      <c r="D239" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E239" s="30" t="s">
+      <c r="E239" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="F239" s="31" t="s">
+      <c r="F239" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G239" s="30" t="s">
+      <c r="G239" s="29" t="s">
         <v>503</v>
       </c>
       <c r="H239" s="17">
         <f>_xlfn.XLOOKUP(E239,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I239" s="29" t="str">
+      <c r="I239" s="28" t="str">
         <f>_xlfn.XLOOKUP(C239,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The help function in net/netfilter/nf_nat_irc.c in the Linux kernel before 3.12.8 allows remote attackers to obtain sensitive information from kernel memory by establishing an IRC DCC session in which incorrect packet data is transmitted during use of the NAT mangle feature.</v>
       </c>
-      <c r="J239" s="29"/>
-      <c r="K239" s="42" t="s">
+      <c r="J239" s="28"/>
+      <c r="K239" s="41" t="s">
         <v>1440</v>
       </c>
-      <c r="L239" s="29" t="s">
+      <c r="L239" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M239" s="29"/>
-      <c r="N239" s="29"/>
+      <c r="M239" s="28"/>
+      <c r="N239" s="28"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
@@ -29429,10 +29731,10 @@
       <c r="F240" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="G240" s="30" t="s">
+      <c r="G240" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H240" s="29">
+      <c r="H240" s="28">
         <f>_xlfn.XLOOKUP(E240,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -29448,46 +29750,46 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A241" s="29" t="s">
+      <c r="A241" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="B241" s="29" t="s">
+      <c r="B241" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C241" s="29" t="s">
+      <c r="C241" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="D241" s="29" t="s">
+      <c r="D241" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E241" s="30" t="s">
+      <c r="E241" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="F241" s="31" t="s">
+      <c r="F241" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G241" s="30" t="s">
+      <c r="G241" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H241" s="29">
+      <c r="H241" s="28">
         <f>_xlfn.XLOOKUP(E241,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I241" s="29" t="str">
+      <c r="I241" s="28" t="str">
         <f>_xlfn.XLOOKUP(C241,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Array index error in the logi_dj_raw_event function in drivers/hid/hid-logitech-dj.c in the Linux kernel before 3.16.2 allows physically proximate attackers to execute arbitrary code or cause a denial of service (invalid kfree) via a crafted device that provides a malformed REPORT_TYPE_NOTIF_DEVICE_UNPAIRED value.</v>
       </c>
-      <c r="J241" s="29"/>
-      <c r="K241" s="42" t="s">
+      <c r="J241" s="28"/>
+      <c r="K241" s="41" t="s">
         <v>1442</v>
       </c>
-      <c r="L241" s="29" t="s">
+      <c r="L241" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M241" s="29" t="s">
+      <c r="M241" s="28" t="s">
         <v>1481</v>
       </c>
-      <c r="N241" s="29"/>
+      <c r="N241" s="28"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
@@ -29530,46 +29832,46 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A243" s="29" t="s">
+      <c r="A243" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="B243" s="29" t="s">
+      <c r="B243" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C243" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D243" s="35" t="s">
+      <c r="D243" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="E243" s="36" t="s">
+      <c r="E243" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="F243" s="31" t="s">
+      <c r="F243" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G243" s="30" t="s">
+      <c r="G243" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H243" s="29">
+      <c r="H243" s="28">
         <f>_xlfn.XLOOKUP(E243,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>6</v>
       </c>
-      <c r="I243" s="29" t="str">
+      <c r="I243" s="28" t="str">
         <f>_xlfn.XLOOKUP(C243,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The report_fixup functions in the HID subsystem in the Linux kernel before 3.16.2 might allow physically proximate attackers to cause a denial of service (out-of-bounds write) via a crafted device that provides a small report descriptor, related to (1) drivers/hid/hid-cherry.c, (2) drivers/hid/hid-kye.c, (3) drivers/hid/hid-lg.c, (4) drivers/hid/hid-monterey.c, (5) drivers/hid/hid-petalynx.c, and (6) drivers/hid/hid-sunplus.c.</v>
       </c>
-      <c r="J243" s="29"/>
-      <c r="K243" s="29" t="s">
+      <c r="J243" s="28"/>
+      <c r="K243" s="28" t="s">
         <v>1444</v>
       </c>
-      <c r="L243" s="29" t="s">
+      <c r="L243" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M243" s="29" t="s">
+      <c r="M243" s="28" t="s">
         <v>1504</v>
       </c>
-      <c r="N243" s="29"/>
+      <c r="N243" s="28"/>
     </row>
     <row r="244" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="22" t="s">
@@ -29630,7 +29932,7 @@
       <c r="G245" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="H245" s="29">
+      <c r="H245" s="28">
         <f>_xlfn.XLOOKUP(E245,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -29667,7 +29969,7 @@
       <c r="F246" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="G246" s="30" t="s">
+      <c r="G246" s="29" t="s">
         <v>502</v>
       </c>
       <c r="H246" s="22">
@@ -29754,7 +30056,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="17" t="s">
         <v>441</v>
       </c>
@@ -29785,7 +30087,7 @@
         <v>Buffer overflow in net/ceph/auth_x.c in Ceph, as used in the Linux kernel before 3.16.3, allows remote attackers to cause a denial of service (memory corruption and panic) or possibly have unspecified other impact via a long unencrypted auth ticket.</v>
       </c>
       <c r="J249" s="17"/>
-      <c r="K249" s="28" t="s">
+      <c r="K249" s="27" t="s">
         <v>1449</v>
       </c>
       <c r="L249" s="17" t="s">
@@ -29794,7 +30096,7 @@
       <c r="M249" s="17"/>
       <c r="N249" s="17"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="22" t="s">
         <v>441</v>
       </c>
@@ -29816,20 +30118,16 @@
       <c r="G250" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="22">
         <f>_xlfn.XLOOKUP(E250,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I250" s="22"/>
-      <c r="J250" s="22"/>
-      <c r="K250" s="28" t="s">
+      <c r="K250" s="26" t="s">
         <v>1449</v>
       </c>
-      <c r="L250" s="17" t="s">
+      <c r="L250" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="M250" s="22"/>
-      <c r="N250" s="22"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
@@ -29850,10 +30148,10 @@
       <c r="F251" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="G251" s="30" t="s">
+      <c r="G251" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="H251" s="29">
+      <c r="H251" s="22">
         <f>_xlfn.XLOOKUP(E251,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -29869,44 +30167,44 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A252" s="29" t="s">
+      <c r="A252" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B252" s="29" t="s">
+      <c r="B252" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C252" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="D252" s="29" t="s">
+      <c r="D252" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="E252" s="30" t="s">
+      <c r="E252" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="F252" s="31" t="s">
+      <c r="F252" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="G252" s="30" t="s">
+      <c r="G252" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H252" s="29">
+      <c r="H252" s="28">
         <f>_xlfn.XLOOKUP(E252,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I252" s="29" t="str">
+      <c r="I252" s="28" t="str">
         <f>_xlfn.XLOOKUP(C252,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in the ttusbdecfe_dvbs_diseqc_send_master_cmd function in drivers/media/usb/ttusb-dec/ttusbdecfe.c in the Linux kernel before 3.17.4 allows local users to cause a denial of service (system crash) or possibly gain privileges via a large message length in an ioctl call.</v>
       </c>
-      <c r="J252" s="29"/>
-      <c r="K252" s="29" t="s">
+      <c r="J252" s="28"/>
+      <c r="K252" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="L252" s="29" t="s">
+      <c r="L252" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M252" s="29"/>
-      <c r="N252" s="29"/>
+      <c r="M252" s="28"/>
+      <c r="N252" s="28"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
@@ -29924,13 +30222,13 @@
       <c r="E253" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F253" s="54" t="s">
+      <c r="F253" s="53" t="s">
         <v>498</v>
       </c>
-      <c r="G253" s="30" t="s">
+      <c r="G253" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="H253" s="29">
+      <c r="H253" s="28">
         <f>_xlfn.XLOOKUP(E253,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -29946,44 +30244,44 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A254" s="29" t="s">
+      <c r="A254" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="B254" s="29" t="s">
+      <c r="B254" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="C254" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="D254" s="29" t="s">
+      <c r="D254" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E254" s="30" t="s">
+      <c r="E254" s="29" t="s">
         <v>455</v>
       </c>
       <c r="F254" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="G254" s="30" t="s">
+      <c r="G254" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="H254" s="29">
+      <c r="H254" s="28">
         <f>_xlfn.XLOOKUP(E254,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I254" s="29" t="str">
+      <c r="I254" s="28" t="str">
         <f>_xlfn.XLOOKUP(C254,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in the get_matching_model_microcode function in arch/x86/kernel/cpu/microcode/intel_early.c in the Linux kernel before 4.0 allows context-dependent attackers to gain privileges by constructing a crafted microcode header and leveraging root privileges for write access to the initrd.</v>
       </c>
-      <c r="J254" s="29"/>
-      <c r="K254" s="42" t="s">
+      <c r="J254" s="28"/>
+      <c r="K254" s="41" t="s">
         <v>1453</v>
       </c>
-      <c r="L254" s="29" t="s">
+      <c r="L254" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M254" s="29"/>
-      <c r="N254" s="29"/>
+      <c r="M254" s="28"/>
+      <c r="N254" s="28"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
@@ -30007,7 +30305,7 @@
       <c r="G255" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H255" s="29">
+      <c r="H255" s="28">
         <f>_xlfn.XLOOKUP(E255,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
@@ -30053,7 +30351,7 @@
         <v>The __driver_rfc4106_decrypt function in arch/x86/crypto/aesni-intel_glue.c in the Linux kernel before 3.19.3 does not properly determine the memory locations used for encrypted data, which allows context-dependent attackers to cause a denial of service (buffer overflow and system crash) or possibly execute arbitrary code by triggering a crypto API call, as demonstrated by use of a libkcapi test program with an AF_ALG(aead) socket.</v>
       </c>
       <c r="J256" s="17"/>
-      <c r="K256" s="28" t="s">
+      <c r="K256" s="27" t="s">
         <v>1455</v>
       </c>
       <c r="L256" s="17" t="s">
@@ -30088,7 +30386,7 @@
         <f>_xlfn.XLOOKUP(E257,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="K257" s="42" t="s">
+      <c r="K257" s="41" t="s">
         <v>1455</v>
       </c>
       <c r="L257" s="22" t="s">
@@ -30133,39 +30431,41 @@
       </c>
     </row>
     <row r="259" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="62" t="s">
+      <c r="A259" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B259" s="62" t="s">
+      <c r="B259" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="C259" s="62" t="s">
+      <c r="C259" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="D259" s="62" t="s">
+      <c r="D259" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="E259" s="63" t="s">
+      <c r="E259" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="F259" s="64" t="s">
+      <c r="F259" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="G259" s="63" t="s">
+      <c r="G259" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="H259" s="62">
+      <c r="H259" s="59">
         <f>_xlfn.XLOOKUP(E259,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I259" s="62"/>
-      <c r="J259" s="62"/>
-      <c r="K259" s="62"/>
-      <c r="L259" s="62" t="s">
+      <c r="I259" s="59"/>
+      <c r="J259" s="59"/>
+      <c r="K259" s="59" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L259" s="59" t="s">
         <v>1460</v>
       </c>
-      <c r="M259" s="62"/>
-      <c r="N259" s="62"/>
+      <c r="M259" s="59"/>
+      <c r="N259" s="59"/>
     </row>
     <row r="260" spans="1:14" s="22" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A260" s="22" t="s">
@@ -30242,46 +30542,46 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A262" s="29" t="s">
+      <c r="A262" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="B262" s="29" t="s">
+      <c r="B262" s="28" t="s">
         <v>1512</v>
       </c>
-      <c r="C262" s="29" t="s">
+      <c r="C262" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="D262" s="29" t="s">
+      <c r="D262" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E262" s="30" t="s">
+      <c r="E262" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="F262" s="31" t="s">
+      <c r="F262" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="G262" s="30" t="s">
+      <c r="G262" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="H262" s="29">
+      <c r="H262" s="28">
         <f>_xlfn.XLOOKUP(E262,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I262" s="29" t="str">
+      <c r="I262" s="28" t="str">
         <f>_xlfn.XLOOKUP(C262,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The ocaml binding for the xc_vcpu_getaffinity function in Xen 4.2.x and 4.3.x frees certain memory that may still be intended for use, which allows local users to cause a denial of service (heap corruption and crash) and possibly execute arbitrary code via unspecified vectors that trigger a (1) use-after-free or (2) double free.</v>
       </c>
-      <c r="J262" s="29"/>
-      <c r="K262" s="29" t="s">
+      <c r="J262" s="28"/>
+      <c r="K262" s="28" t="s">
         <v>1327</v>
       </c>
-      <c r="L262" s="29" t="s">
+      <c r="L262" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="M262" s="29" t="s">
+      <c r="M262" s="28" t="s">
         <v>1483</v>
       </c>
-      <c r="N262" s="29"/>
+      <c r="N262" s="28"/>
     </row>
     <row r="263" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="22" t="s">
@@ -30314,7 +30614,10 @@
         <v>The Ocaml xenstored implementation (oxenstored) in Xen 4.1.x, 4.2.x, and 4.3.x allows local guest domains to cause a denial of service (domain shutdown) via a large message reply.</v>
       </c>
       <c r="K263" s="26" t="s">
-        <v>1328</v>
+        <v>1521</v>
+      </c>
+      <c r="L263" s="28" t="s">
+        <v>1460</v>
       </c>
       <c r="M263" s="22" t="s">
         <v>1484</v>
@@ -30354,7 +30657,9 @@
       <c r="K264" s="26" t="s">
         <v>1328</v>
       </c>
-      <c r="L264" s="22"/>
+      <c r="L264" s="28" t="s">
+        <v>1460</v>
+      </c>
       <c r="M264" s="22"/>
       <c r="N264" s="22"/>
     </row>
@@ -30368,93 +30673,94 @@
     <hyperlink ref="K5" r:id="rId1" xr:uid="{26428F23-70B7-324E-A4A9-6D3F13CE1626}"/>
     <hyperlink ref="K6" r:id="rId2" xr:uid="{3CD0349C-16EB-B940-9059-16DC881A453B}"/>
     <hyperlink ref="K142" r:id="rId3" xr:uid="{64FE4FEB-5083-E84A-9F9F-0DA40E054D79}"/>
-    <hyperlink ref="K263" r:id="rId4" xr:uid="{A33F9DFD-5D04-044F-9351-DD7AFF8F7B6E}"/>
-    <hyperlink ref="K129" r:id="rId5" xr:uid="{99FB61D0-AA30-8243-A8C9-699B7698DEDA}"/>
-    <hyperlink ref="K260" r:id="rId6" xr:uid="{676D98BD-6C2D-5841-B1ED-EC904212D2C8}"/>
-    <hyperlink ref="K130" r:id="rId7" xr:uid="{30A1C770-F282-9045-BEBE-1EA393320479}"/>
-    <hyperlink ref="K189" r:id="rId8" xr:uid="{C005FF8C-17A9-0843-A40A-AF5D37E1E76F}"/>
-    <hyperlink ref="K23" r:id="rId9" xr:uid="{112AED76-71EF-C34B-8E94-5CFF3186D2BE}"/>
-    <hyperlink ref="K10" r:id="rId10" xr:uid="{27E5092D-4239-AB4A-B11E-21AF1ED1EF69}"/>
-    <hyperlink ref="K36" r:id="rId11" xr:uid="{796EC8A2-6574-8E44-887B-CABFD375FC43}"/>
-    <hyperlink ref="K50" r:id="rId12" xr:uid="{93DEE1F8-9EFE-2E42-AC1A-D3F2C434690A}"/>
-    <hyperlink ref="K52" r:id="rId13" xr:uid="{97C53EE5-6E1D-604D-B80B-6B93E69CBB53}"/>
-    <hyperlink ref="K74" r:id="rId14" xr:uid="{D75D2C22-49D0-8247-8453-84298946FC4C}"/>
-    <hyperlink ref="K90" r:id="rId15" xr:uid="{B11E9676-5CB3-0C4B-BFE4-065A86AD533E}"/>
-    <hyperlink ref="K91" r:id="rId16" xr:uid="{94D29040-622E-4547-8F4F-9114B715447B}"/>
-    <hyperlink ref="K92" r:id="rId17" xr:uid="{A785D075-B2A7-EB48-A264-CDBCAC9FC0DE}"/>
-    <hyperlink ref="K97" r:id="rId18" xr:uid="{4C480771-6A9A-6A4F-9D96-C3E1FFEA2DDF}"/>
-    <hyperlink ref="K99" r:id="rId19" xr:uid="{0EF3A454-7537-F844-B5F0-2D6D28E85C8C}"/>
-    <hyperlink ref="K100" r:id="rId20" xr:uid="{BA6449C7-1820-AF4D-A1C7-05549499E1B1}"/>
-    <hyperlink ref="K106" r:id="rId21" xr:uid="{F2BCC398-B6DF-6146-91B9-C462E23FD594}"/>
-    <hyperlink ref="K108" r:id="rId22" xr:uid="{B6288254-B20A-D942-8EA4-1028C39F0B1B}"/>
-    <hyperlink ref="K113" r:id="rId23" xr:uid="{3F97A375-ACA6-274B-B8AA-3F9D813CB3A2}"/>
-    <hyperlink ref="K115" r:id="rId24" xr:uid="{3FAD56A4-3A2E-CE4F-81EF-73794C8DC145}"/>
-    <hyperlink ref="K119" r:id="rId25" xr:uid="{45E3D9D8-28F6-2443-99CE-1D7DA936C04D}"/>
-    <hyperlink ref="K125" r:id="rId26" xr:uid="{BAA964FF-3F57-F041-ABA5-11059228E784}"/>
-    <hyperlink ref="K136" r:id="rId27" xr:uid="{01C53403-1B7B-944C-95BB-3471C7BF7040}"/>
-    <hyperlink ref="K138" r:id="rId28" xr:uid="{3E134E6A-4542-A242-B2AA-028D17019BE3}"/>
-    <hyperlink ref="K140" r:id="rId29" xr:uid="{0BBD6D4A-0080-6642-AAAF-DDF6038D2EFA}"/>
-    <hyperlink ref="K145" r:id="rId30" xr:uid="{74935C08-8611-014C-864D-DA14F5C21524}"/>
-    <hyperlink ref="K147" r:id="rId31" xr:uid="{08A7B5D6-9B6F-3E44-B752-BD1D4E84E892}"/>
-    <hyperlink ref="K153" r:id="rId32" xr:uid="{0B52330C-44FC-6942-B3E1-A32494FD36F4}"/>
-    <hyperlink ref="K158" r:id="rId33" xr:uid="{59A62EA4-5B23-AF40-8F51-A7B3964E861A}"/>
-    <hyperlink ref="K160" r:id="rId34" xr:uid="{F9ECC432-7114-364C-991F-8881B589BB7E}"/>
-    <hyperlink ref="K167" r:id="rId35" xr:uid="{978306BE-E10D-EA48-B2C3-CCDD41D702F9}"/>
-    <hyperlink ref="K170" r:id="rId36" xr:uid="{F978CD1D-3CB6-C94C-ADFF-503DE857BA8D}"/>
-    <hyperlink ref="K171" r:id="rId37" xr:uid="{64D0328B-0582-0647-ADE0-AB97C06063A5}"/>
-    <hyperlink ref="K172" r:id="rId38" xr:uid="{217BBCF2-E852-474C-9AD6-D4201E245E35}"/>
-    <hyperlink ref="K175" r:id="rId39" xr:uid="{3F4ACC71-3F3E-F242-B7E6-3AE3670EDC19}"/>
-    <hyperlink ref="K176" r:id="rId40" xr:uid="{A46D8741-9CF1-4146-9DF5-D4814D9C9CEB}"/>
-    <hyperlink ref="K177" r:id="rId41" xr:uid="{B8CF4AC0-1148-DC49-B7FB-7EB175CCB72E}"/>
-    <hyperlink ref="K178" r:id="rId42" xr:uid="{6FE463B2-712D-3441-835D-C5A0E5FEBEB4}"/>
-    <hyperlink ref="K186" r:id="rId43" xr:uid="{6B3AB320-45CB-F042-ACCC-C4EA0C0D9723}"/>
-    <hyperlink ref="K187" r:id="rId44" xr:uid="{3E74D5C8-5CA5-D144-B4A0-6BE9EB48EAA2}"/>
-    <hyperlink ref="K188" r:id="rId45" xr:uid="{8742888B-8D0E-0249-9097-DB4780F83B77}"/>
-    <hyperlink ref="K193" r:id="rId46" xr:uid="{3631DFED-436D-7645-B3DD-DCF74EA4B06D}"/>
-    <hyperlink ref="K196" r:id="rId47" xr:uid="{3FD1808F-6556-FF4F-8205-1CD15C5D7C92}"/>
-    <hyperlink ref="K199" r:id="rId48" xr:uid="{FA2A21E8-4D0A-9B4C-8276-168C40B2502E}"/>
-    <hyperlink ref="K202" r:id="rId49" xr:uid="{86756292-AB21-DF49-A9C2-42D837CC12A3}"/>
-    <hyperlink ref="K203" r:id="rId50" xr:uid="{D6ACEFCD-679C-5E46-8F35-276C71F8C212}"/>
-    <hyperlink ref="K205" r:id="rId51" xr:uid="{E0591002-B4E8-D04C-9F58-C84D46DB57FB}"/>
-    <hyperlink ref="K211" r:id="rId52" xr:uid="{779ACE5F-1751-7245-AD3B-4E8C4B966ABE}"/>
-    <hyperlink ref="K219" r:id="rId53" xr:uid="{69E04C34-F81F-4043-9F31-F01CA6132A6D}"/>
-    <hyperlink ref="K229" r:id="rId54" xr:uid="{FC6B1993-77FA-F848-88FF-533FC2662F81}"/>
-    <hyperlink ref="K238" r:id="rId55" xr:uid="{0A1F6789-76EC-CE43-ACD4-13BA360BD65C}"/>
-    <hyperlink ref="K239" r:id="rId56" xr:uid="{54308157-17EC-9247-AC2E-BCB9A858E841}"/>
-    <hyperlink ref="K241" r:id="rId57" xr:uid="{1178050E-45AB-EC4C-B0CF-1B4AAACB78C3}"/>
-    <hyperlink ref="K244" r:id="rId58" xr:uid="{AE1BAA1A-7C45-274D-8E71-3B81854469F8}"/>
-    <hyperlink ref="K249" r:id="rId59" xr:uid="{19CCE419-26B5-2745-A931-05F70E3058E9}"/>
-    <hyperlink ref="K251" r:id="rId60" xr:uid="{1B3047BE-6841-E547-907B-E324A93DBFBE}"/>
-    <hyperlink ref="K254" r:id="rId61" xr:uid="{0E9826CD-842A-BB44-833B-618B461D53DA}"/>
-    <hyperlink ref="K256" r:id="rId62" xr:uid="{CA9F4555-950C-7442-8694-B0A2E8720D22}"/>
-    <hyperlink ref="K264" r:id="rId63" xr:uid="{AEBD1ECB-66D8-A541-A172-C0CF7EDA73F4}"/>
-    <hyperlink ref="K236" r:id="rId64" xr:uid="{5FA90226-970E-9F4E-AF4F-6DBCC8A576EA}"/>
-    <hyperlink ref="K246" r:id="rId65" xr:uid="{887A4599-0A8F-D144-AF31-394DE0486357}"/>
-    <hyperlink ref="K247" r:id="rId66" xr:uid="{D24E9A65-1B62-42A9-AA15-4C71BF3B1C52}"/>
-    <hyperlink ref="K248" r:id="rId67" xr:uid="{3089B238-6C64-48AA-9904-6C7468FFF911}"/>
-    <hyperlink ref="K257" r:id="rId68" xr:uid="{9E3F4B93-F6CC-4A39-B840-EFAE40CB2D69}"/>
-    <hyperlink ref="K250" r:id="rId69" xr:uid="{8C35FE8B-CA0B-4BD4-9427-CC27CAE5B5D7}"/>
-    <hyperlink ref="K24" r:id="rId70" xr:uid="{4D56F9B3-BE21-4894-9757-2E5C4E48645F}"/>
-    <hyperlink ref="K25" r:id="rId71" xr:uid="{AE91DEE8-2AA2-4366-BD50-D04AF744D4F1}"/>
-    <hyperlink ref="K26" r:id="rId72" xr:uid="{19B1A667-A3EF-48D2-A11D-08A3FECDCC66}"/>
-    <hyperlink ref="K27" r:id="rId73" xr:uid="{AFCAEEAE-6638-4F61-A65E-03AF58B064EC}"/>
-    <hyperlink ref="K179" r:id="rId74" xr:uid="{67756CB2-58DC-4A30-9991-8E175E7B1C32}"/>
-    <hyperlink ref="K230" r:id="rId75" xr:uid="{74A48809-15ED-4251-BA29-F8FDF3CDEAFC}"/>
-    <hyperlink ref="K231" r:id="rId76" xr:uid="{E7B9EE51-ADC3-4CB9-8AE6-9D95A8434C29}"/>
-    <hyperlink ref="K132" r:id="rId77" xr:uid="{5AEBFE91-51B4-41A8-AA7B-DB20D6FA27A4}"/>
-    <hyperlink ref="K131" r:id="rId78" xr:uid="{7E9F887B-CBC2-4FAA-B677-0AF65ABBF2ED}"/>
-    <hyperlink ref="K126" r:id="rId79" xr:uid="{0EE87084-6ADC-4763-B86E-E837D1481610}"/>
-    <hyperlink ref="K109" r:id="rId80" xr:uid="{F283AF13-FFE8-48B8-9BB8-FF3F89771E99}"/>
-    <hyperlink ref="K107" r:id="rId81" xr:uid="{5042126C-AF9F-4B55-8D88-1C9C72B2430D}"/>
-    <hyperlink ref="K93" r:id="rId82" xr:uid="{CE05EB40-37DA-4C41-96CC-2676448B1A12}"/>
-    <hyperlink ref="K94" r:id="rId83" xr:uid="{E79C27C0-858B-49D9-875B-D2D1F60A465E}"/>
-    <hyperlink ref="K95" r:id="rId84" xr:uid="{8EF2A9BB-E88F-4445-BDEB-D6597A4132F2}"/>
+    <hyperlink ref="K129" r:id="rId4" xr:uid="{99FB61D0-AA30-8243-A8C9-699B7698DEDA}"/>
+    <hyperlink ref="K260" r:id="rId5" xr:uid="{676D98BD-6C2D-5841-B1ED-EC904212D2C8}"/>
+    <hyperlink ref="K130" r:id="rId6" xr:uid="{30A1C770-F282-9045-BEBE-1EA393320479}"/>
+    <hyperlink ref="K189" r:id="rId7" xr:uid="{C005FF8C-17A9-0843-A40A-AF5D37E1E76F}"/>
+    <hyperlink ref="K23" r:id="rId8" xr:uid="{112AED76-71EF-C34B-8E94-5CFF3186D2BE}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{27E5092D-4239-AB4A-B11E-21AF1ED1EF69}"/>
+    <hyperlink ref="K36" r:id="rId10" xr:uid="{796EC8A2-6574-8E44-887B-CABFD375FC43}"/>
+    <hyperlink ref="K50" r:id="rId11" xr:uid="{93DEE1F8-9EFE-2E42-AC1A-D3F2C434690A}"/>
+    <hyperlink ref="K52" r:id="rId12" xr:uid="{97C53EE5-6E1D-604D-B80B-6B93E69CBB53}"/>
+    <hyperlink ref="K74" r:id="rId13" xr:uid="{D75D2C22-49D0-8247-8453-84298946FC4C}"/>
+    <hyperlink ref="K90" r:id="rId14" xr:uid="{B11E9676-5CB3-0C4B-BFE4-065A86AD533E}"/>
+    <hyperlink ref="K91" r:id="rId15" xr:uid="{94D29040-622E-4547-8F4F-9114B715447B}"/>
+    <hyperlink ref="K92" r:id="rId16" xr:uid="{A785D075-B2A7-EB48-A264-CDBCAC9FC0DE}"/>
+    <hyperlink ref="K97" r:id="rId17" xr:uid="{4C480771-6A9A-6A4F-9D96-C3E1FFEA2DDF}"/>
+    <hyperlink ref="K99" r:id="rId18" xr:uid="{0EF3A454-7537-F844-B5F0-2D6D28E85C8C}"/>
+    <hyperlink ref="K100" r:id="rId19" xr:uid="{BA6449C7-1820-AF4D-A1C7-05549499E1B1}"/>
+    <hyperlink ref="K106" r:id="rId20" xr:uid="{F2BCC398-B6DF-6146-91B9-C462E23FD594}"/>
+    <hyperlink ref="K108" r:id="rId21" xr:uid="{B6288254-B20A-D942-8EA4-1028C39F0B1B}"/>
+    <hyperlink ref="K113" r:id="rId22" xr:uid="{3F97A375-ACA6-274B-B8AA-3F9D813CB3A2}"/>
+    <hyperlink ref="K115" r:id="rId23" xr:uid="{3FAD56A4-3A2E-CE4F-81EF-73794C8DC145}"/>
+    <hyperlink ref="K119" r:id="rId24" xr:uid="{45E3D9D8-28F6-2443-99CE-1D7DA936C04D}"/>
+    <hyperlink ref="K125" r:id="rId25" xr:uid="{BAA964FF-3F57-F041-ABA5-11059228E784}"/>
+    <hyperlink ref="K136" r:id="rId26" xr:uid="{01C53403-1B7B-944C-95BB-3471C7BF7040}"/>
+    <hyperlink ref="K145" r:id="rId27" xr:uid="{74935C08-8611-014C-864D-DA14F5C21524}"/>
+    <hyperlink ref="K147" r:id="rId28" xr:uid="{08A7B5D6-9B6F-3E44-B752-BD1D4E84E892}"/>
+    <hyperlink ref="K153" r:id="rId29" xr:uid="{0B52330C-44FC-6942-B3E1-A32494FD36F4}"/>
+    <hyperlink ref="K158" r:id="rId30" xr:uid="{59A62EA4-5B23-AF40-8F51-A7B3964E861A}"/>
+    <hyperlink ref="K160" r:id="rId31" xr:uid="{F9ECC432-7114-364C-991F-8881B589BB7E}"/>
+    <hyperlink ref="K167" r:id="rId32" xr:uid="{978306BE-E10D-EA48-B2C3-CCDD41D702F9}"/>
+    <hyperlink ref="K170" r:id="rId33" xr:uid="{F978CD1D-3CB6-C94C-ADFF-503DE857BA8D}"/>
+    <hyperlink ref="K171" r:id="rId34" xr:uid="{64D0328B-0582-0647-ADE0-AB97C06063A5}"/>
+    <hyperlink ref="K172" r:id="rId35" xr:uid="{217BBCF2-E852-474C-9AD6-D4201E245E35}"/>
+    <hyperlink ref="K175" r:id="rId36" xr:uid="{3F4ACC71-3F3E-F242-B7E6-3AE3670EDC19}"/>
+    <hyperlink ref="K176" r:id="rId37" xr:uid="{A46D8741-9CF1-4146-9DF5-D4814D9C9CEB}"/>
+    <hyperlink ref="K177" r:id="rId38" xr:uid="{B8CF4AC0-1148-DC49-B7FB-7EB175CCB72E}"/>
+    <hyperlink ref="K178" r:id="rId39" xr:uid="{6FE463B2-712D-3441-835D-C5A0E5FEBEB4}"/>
+    <hyperlink ref="K186" r:id="rId40" xr:uid="{6B3AB320-45CB-F042-ACCC-C4EA0C0D9723}"/>
+    <hyperlink ref="K187" r:id="rId41" xr:uid="{3E74D5C8-5CA5-D144-B4A0-6BE9EB48EAA2}"/>
+    <hyperlink ref="K188" r:id="rId42" xr:uid="{8742888B-8D0E-0249-9097-DB4780F83B77}"/>
+    <hyperlink ref="K193" r:id="rId43" xr:uid="{3631DFED-436D-7645-B3DD-DCF74EA4B06D}"/>
+    <hyperlink ref="K196" r:id="rId44" xr:uid="{3FD1808F-6556-FF4F-8205-1CD15C5D7C92}"/>
+    <hyperlink ref="K199" r:id="rId45" xr:uid="{FA2A21E8-4D0A-9B4C-8276-168C40B2502E}"/>
+    <hyperlink ref="K202" r:id="rId46" xr:uid="{86756292-AB21-DF49-A9C2-42D837CC12A3}"/>
+    <hyperlink ref="K203" r:id="rId47" xr:uid="{D6ACEFCD-679C-5E46-8F35-276C71F8C212}"/>
+    <hyperlink ref="K205" r:id="rId48" xr:uid="{E0591002-B4E8-D04C-9F58-C84D46DB57FB}"/>
+    <hyperlink ref="K211" r:id="rId49" xr:uid="{779ACE5F-1751-7245-AD3B-4E8C4B966ABE}"/>
+    <hyperlink ref="K219" r:id="rId50" xr:uid="{69E04C34-F81F-4043-9F31-F01CA6132A6D}"/>
+    <hyperlink ref="K229" r:id="rId51" xr:uid="{FC6B1993-77FA-F848-88FF-533FC2662F81}"/>
+    <hyperlink ref="K238" r:id="rId52" xr:uid="{0A1F6789-76EC-CE43-ACD4-13BA360BD65C}"/>
+    <hyperlink ref="K239" r:id="rId53" xr:uid="{54308157-17EC-9247-AC2E-BCB9A858E841}"/>
+    <hyperlink ref="K241" r:id="rId54" xr:uid="{1178050E-45AB-EC4C-B0CF-1B4AAACB78C3}"/>
+    <hyperlink ref="K244" r:id="rId55" xr:uid="{AE1BAA1A-7C45-274D-8E71-3B81854469F8}"/>
+    <hyperlink ref="K249" r:id="rId56" xr:uid="{19CCE419-26B5-2745-A931-05F70E3058E9}"/>
+    <hyperlink ref="K251" r:id="rId57" xr:uid="{1B3047BE-6841-E547-907B-E324A93DBFBE}"/>
+    <hyperlink ref="K254" r:id="rId58" xr:uid="{0E9826CD-842A-BB44-833B-618B461D53DA}"/>
+    <hyperlink ref="K256" r:id="rId59" xr:uid="{CA9F4555-950C-7442-8694-B0A2E8720D22}"/>
+    <hyperlink ref="K264" r:id="rId60" xr:uid="{AEBD1ECB-66D8-A541-A172-C0CF7EDA73F4}"/>
+    <hyperlink ref="K236" r:id="rId61" xr:uid="{5FA90226-970E-9F4E-AF4F-6DBCC8A576EA}"/>
+    <hyperlink ref="K246" r:id="rId62" xr:uid="{887A4599-0A8F-D144-AF31-394DE0486357}"/>
+    <hyperlink ref="K247" r:id="rId63" xr:uid="{D24E9A65-1B62-42A9-AA15-4C71BF3B1C52}"/>
+    <hyperlink ref="K248" r:id="rId64" xr:uid="{3089B238-6C64-48AA-9904-6C7468FFF911}"/>
+    <hyperlink ref="K257" r:id="rId65" xr:uid="{9E3F4B93-F6CC-4A39-B840-EFAE40CB2D69}"/>
+    <hyperlink ref="K250" r:id="rId66" xr:uid="{8C35FE8B-CA0B-4BD4-9427-CC27CAE5B5D7}"/>
+    <hyperlink ref="K24" r:id="rId67" xr:uid="{4D56F9B3-BE21-4894-9757-2E5C4E48645F}"/>
+    <hyperlink ref="K25" r:id="rId68" xr:uid="{AE91DEE8-2AA2-4366-BD50-D04AF744D4F1}"/>
+    <hyperlink ref="K26" r:id="rId69" xr:uid="{19B1A667-A3EF-48D2-A11D-08A3FECDCC66}"/>
+    <hyperlink ref="K27" r:id="rId70" xr:uid="{AFCAEEAE-6638-4F61-A65E-03AF58B064EC}"/>
+    <hyperlink ref="K179" r:id="rId71" xr:uid="{67756CB2-58DC-4A30-9991-8E175E7B1C32}"/>
+    <hyperlink ref="K230" r:id="rId72" xr:uid="{74A48809-15ED-4251-BA29-F8FDF3CDEAFC}"/>
+    <hyperlink ref="K132" r:id="rId73" xr:uid="{5AEBFE91-51B4-41A8-AA7B-DB20D6FA27A4}"/>
+    <hyperlink ref="K131" r:id="rId74" xr:uid="{7E9F887B-CBC2-4FAA-B677-0AF65ABBF2ED}"/>
+    <hyperlink ref="K126" r:id="rId75" xr:uid="{0EE87084-6ADC-4763-B86E-E837D1481610}"/>
+    <hyperlink ref="K109" r:id="rId76" xr:uid="{F283AF13-FFE8-48B8-9BB8-FF3F89771E99}"/>
+    <hyperlink ref="K107" r:id="rId77" xr:uid="{5042126C-AF9F-4B55-8D88-1C9C72B2430D}"/>
+    <hyperlink ref="K93" r:id="rId78" xr:uid="{CE05EB40-37DA-4C41-96CC-2676448B1A12}"/>
+    <hyperlink ref="K94" r:id="rId79" xr:uid="{E79C27C0-858B-49D9-875B-D2D1F60A465E}"/>
+    <hyperlink ref="K95" r:id="rId80" xr:uid="{8EF2A9BB-E88F-4445-BDEB-D6597A4132F2}"/>
+    <hyperlink ref="K37" r:id="rId81" xr:uid="{F5EEF40D-5FA3-41C9-9A8F-BC506C2D99F4}"/>
+    <hyperlink ref="K38" r:id="rId82" xr:uid="{FB708A59-8A7D-42AD-BD1F-87DB81BF3C68}"/>
+    <hyperlink ref="K39" r:id="rId83" xr:uid="{58D4A294-5D21-4216-BC5A-7CD364C806E8}"/>
+    <hyperlink ref="K53" r:id="rId84" xr:uid="{5DE45632-DF31-4E27-A808-2CA96410B7C5}"/>
+    <hyperlink ref="K231" r:id="rId85" xr:uid="{E7B9EE51-ADC3-4CB9-8AE6-9D95A8434C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F5AF45F-C13C-7747-A89C-241260F1E0EE}">
           <x14:formula1>
             <xm:f>Definitions!$A$2:$A$7</xm:f>
@@ -30519,13 +30825,13 @@
       <c r="F4" t="s">
         <v>1123</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>503</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="52" t="s">
         <v>504</v>
       </c>
     </row>
@@ -30545,19 +30851,19 @@
       <c r="G5" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Type",$G5,"Defect Qualifier",H$4)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="56">
         <f t="shared" ref="I5:J9" si="0">GETPIVOTDATA("Defect Type",$A$3,"Defect Type",$G5,"Defect Qualifier",I$4)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Type",$G5,"Defect Qualifier",J$4)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Type",G5)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.19444444444444445</v>
       </c>
@@ -30581,19 +30887,19 @@
       <c r="G6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <f t="shared" ref="H6:H9" si="1">GETPIVOTDATA("Defect Type",$A$3,"Defect Type",$G6,"Defect Qualifier",H$4)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.14351851851851852</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <f t="shared" si="0"/>
         <v>0.2361111111111111</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <f t="shared" ref="K6:K9" si="2">GETPIVOTDATA("Defect Type",$A$3,"Defect Type",G6)/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.39351851851851855</v>
       </c>
@@ -30617,19 +30923,19 @@
       <c r="G7" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <f t="shared" si="1"/>
         <v>0.23148148148148148</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="56">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <f t="shared" si="0"/>
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <f t="shared" si="2"/>
         <v>0.29629629629629628</v>
       </c>
@@ -30650,19 +30956,19 @@
       <c r="G8" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="56">
         <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="56">
         <f t="shared" si="0"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="56">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -30683,19 +30989,19 @@
       <c r="G9" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="56">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="56">
         <f t="shared" si="2"/>
         <v>8.7962962962962965E-2</v>
       </c>
@@ -30704,9 +31010,9 @@
       <c r="A10" s="7" t="s">
         <v>1507</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
@@ -30724,15 +31030,15 @@
       <c r="F11">
         <v>216</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Qualifier","Incorrect")/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.56944444444444442</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Qualifier","Missing")/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>0.40740740740740738</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$3,"Defect Qualifier","Extraneous")/GETPIVOTDATA("Defect Type",$A$3)</f>
         <v>2.3148148148148147E-2</v>
       </c>
@@ -30764,13 +31070,13 @@
       <c r="F22" t="s">
         <v>1123</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="H22" s="52" t="s">
         <v>1511</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="52" t="s">
         <v>1510</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="52" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30793,19 +31099,19 @@
       <c r="G23" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$21,"Project",H$22,"Defect Type",$G23)/GETPIVOTDATA("Defect Type",$A$21,"Project",H$22)</f>
         <v>0.375</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$21,"Project",I$22,"Defect Type",$G23)/GETPIVOTDATA("Defect Type",$A$21,"Project",I$22)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="56">
         <f>GETPIVOTDATA("Defect Type",$A$21,"Project",J$22,"Defect Type",$G23)/GETPIVOTDATA("Defect Type",$A$21,"Project",J$22)</f>
         <v>0.2</v>
       </c>
-      <c r="K23" s="57"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
@@ -30826,19 +31132,19 @@
       <c r="G24" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <f t="shared" ref="H24:J27" si="3">GETPIVOTDATA("Defect Type",$A$21,"Project",H$22,"Defect Type",$G24)/GETPIVOTDATA("Defect Type",$A$21,"Project",H$22)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="56">
         <f t="shared" si="3"/>
         <v>0.2967032967032967</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="56">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="K24" s="57"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
@@ -30856,19 +31162,19 @@
       <c r="G25" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="56">
         <f t="shared" si="3"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="56">
         <f t="shared" si="3"/>
         <v>0.16483516483516483</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="57"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
@@ -30886,19 +31192,19 @@
       <c r="G26" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="56">
         <f t="shared" si="3"/>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="56">
         <f t="shared" si="3"/>
         <v>8.7912087912087919E-2</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="57"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
@@ -30916,19 +31222,19 @@
       <c r="G27" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="56">
         <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="56">
         <f t="shared" si="3"/>
         <v>2.197802197802198E-2</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="57"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
@@ -30951,15 +31257,15 @@
       <c r="F29">
         <v>216</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="56">
         <f>SUM(H23:H27)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="56">
         <f t="shared" ref="I29:J29" si="4">SUM(I23:I27)</f>
         <v>1</v>
       </c>
-      <c r="J29" s="57">
+      <c r="J29" s="56">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -31024,15 +31330,15 @@
         <f>A36</f>
         <v>Incorrect</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="56">
         <f>GETPIVOTDATA("Defect Qualifier",$A$34,"Project",H$35,"Defect Qualifier",$G36)/GETPIVOTDATA("Defect Qualifier",$A$34,"Project",H$35)</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="56">
         <f t="shared" ref="I36:J38" si="6">GETPIVOTDATA("Defect Qualifier",$A$34,"Project",I$35,"Defect Qualifier",$G36)/GETPIVOTDATA("Defect Qualifier",$A$34,"Project",I$35)</f>
         <v>0.50549450549450547</v>
       </c>
-      <c r="J36" s="57">
+      <c r="J36" s="56">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -31057,15 +31363,15 @@
         <f>A37</f>
         <v>Missing</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="56">
         <f t="shared" ref="H37:H38" si="7">GETPIVOTDATA("Defect Qualifier",$A$34,"Project",H$35,"Defect Qualifier",$G37)/GETPIVOTDATA("Defect Qualifier",$A$34,"Project",H$35)</f>
         <v>0.375</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="56">
         <f t="shared" si="6"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="56">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -31090,15 +31396,15 @@
         <f>A38</f>
         <v>Extraneous</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="56">
         <f t="shared" si="7"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="56">
         <f t="shared" si="6"/>
         <v>3.2967032967032968E-2</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="56">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -31124,15 +31430,15 @@
       <c r="F40">
         <v>216</v>
       </c>
-      <c r="H40" s="58">
+      <c r="H40" s="57">
         <f>SUM(H36:H38)</f>
         <v>1</v>
       </c>
-      <c r="I40" s="58">
+      <c r="I40" s="57">
         <f t="shared" ref="I40:J40" si="8">SUM(I36:I38)</f>
         <v>1</v>
       </c>
-      <c r="J40" s="58">
+      <c r="J40" s="57">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>

--- a/data/vulnerabilities.xlsx
+++ b/data/vulnerabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Uni\Talentos\LLM-and-ODC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A062C7-7C83-42B6-A823-E630960EFC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B025C1D-037D-420C-A0CE-5021976A79D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A00165BD-DFB3-BD4B-9391-7BF7A583E416}"/>
   </bookViews>
@@ -22,10 +22,10 @@
     <sheet name="cve_title" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vulnerabilities!$A$2:$H$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vulnerabilities!$A$2:$H$268</definedName>
     <definedName name="cve_title_1" localSheetId="6">cve_title!$A$1:$B$164</definedName>
     <definedName name="patch_files_info" localSheetId="3">patch_files_info!$A$1:$G$706</definedName>
-    <definedName name="relevant_vuln" localSheetId="0">Vulnerabilities!$A$3:$E$269</definedName>
+    <definedName name="relevant_vuln" localSheetId="0">Vulnerabilities!$A$3:$E$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1521">
   <si>
     <t>V_ID</t>
   </si>
@@ -4657,7 +4657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4718,6 +4718,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4933,7 +4948,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5011,16 +5026,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -5846,7 +5862,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="José Alexandre D'Abruzzo Pereira" refreshedDate="44314.783292361113" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="238" xr:uid="{7517D783-7974-CB4C-8E79-0ECB0454C552}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H269" sheet="Vulnerabilities"/>
+    <worksheetSource ref="A2:H268" sheet="Vulnerabilities"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="V_ID" numFmtId="0">
@@ -5906,7 +5922,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="José Alexandre D'Abruzzo Pereira" refreshedDate="44314.89997766204" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="238" xr:uid="{681B9B8C-63E4-AE4F-90B3-41EA5175267F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:G269" sheet="Vulnerabilities"/>
+    <worksheetSource ref="A2:G268" sheet="Vulnerabilities"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="V_ID" numFmtId="0">
@@ -18517,93 +18533,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA04E8B4-5D2A-6547-9536-E6B83133873B}" name="Tabela Dinâmica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A34:F40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Defect Qualifier" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{816AEB3D-4CC5-3D43-8CBF-7375092873C9}" name="Tabela Dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A21:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -18698,7 +18627,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{876C571E-2282-4D43-8D98-53DB7CC78851}" name="Tabela Dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -18780,6 +18709,93 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Contagem de Defect Type" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA04E8B4-5D2A-6547-9536-E6B83133873B}" name="Tabela Dinâmica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A34:F40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Defect Qualifier" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20446,11 +20462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ED6079-E8B5-6640-BD42-6CBFE9D43206}">
-  <dimension ref="A1:N269"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K268" sqref="K268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -20470,10 +20486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="77" t="s">
         <v>1505</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -21432,17 +21448,17 @@
         <v>538</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="77" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" t="s">
         <v>1509</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" t="s">
         <v>480</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -21454,35 +21470,35 @@
       <c r="G26" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26">
         <f>_xlfn.XLOOKUP(E26,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="I26" s="77" t="str">
+      <c r="I26" t="str">
         <f>_xlfn.XLOOKUP(C26,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
       <c r="K26" s="36" t="s">
         <v>1349</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" t="s">
         <v>1460</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="77" t="s">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" t="s">
         <v>1509</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" t="s">
         <v>480</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -21494,23 +21510,21 @@
       <c r="G27" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27">
         <f>_xlfn.XLOOKUP(E27,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>7</v>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" t="str">
         <f>_xlfn.XLOOKUP(C27,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Mozilla Firefox before 3.6.18 and 4.x through 4.0.1, Thunderbird before 3.1.11, and SeaMonkey through 2.0.14 allow remote attackers to cause a denial of service (memory corruption and application crash) or possibly execute arbitrary code via a multipart/x-mixed-replace image.</v>
       </c>
-      <c r="J27" s="77"/>
       <c r="K27" s="36" t="s">
         <v>1349</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" t="s">
         <v>1460</v>
       </c>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77" t="s">
+      <c r="N27" t="s">
         <v>540</v>
       </c>
     </row>
@@ -30837,7 +30851,7 @@
         <f>_xlfn.XLOOKUP(E261,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>1</v>
       </c>
-      <c r="I261" t="str">
+      <c r="I261" s="59" t="str">
         <f>_xlfn.XLOOKUP(C261,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Array index error in the tcm_vhost_make_tpg function in drivers/vhost/scsi.c in the Linux kernel before 4.0 might allow guest OS users to cause a denial of service (memory corruption) or possibly have unspecified other impact via a crafted VHOST_SCSI_SET_ENDPOINT ioctl call.  NOTE: the affected function was renamed to vhost_scsi_make_tpg before the vulnerability was announced.</v>
       </c>
@@ -30851,184 +30865,185 @@
       <c r="M261" s="59"/>
       <c r="N261" s="59"/>
     </row>
-    <row r="262" spans="1:14" s="8" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="78" t="s">
+    <row r="262" spans="1:14" s="79" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="B262" s="78" t="s">
+      <c r="B262" s="79" t="s">
         <v>1511</v>
       </c>
-      <c r="C262" s="78" t="s">
+      <c r="C262" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="D262" s="78" t="s">
+      <c r="D262" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="E262" s="79" t="s">
+      <c r="E262" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="F262" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="G262" s="79" t="s">
-        <v>502</v>
-      </c>
-      <c r="H262" s="78">
-        <v>1</v>
-      </c>
-      <c r="I262" s="8" t="str">
+      <c r="F262" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="G262" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="H262" s="79">
+        <f>_xlfn.XLOOKUP(E262,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
+        <v>1</v>
+      </c>
+      <c r="I262" s="79" t="str">
         <f>_xlfn.XLOOKUP(C262,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>Stack-based buffer overflow in the dirty video RAM tracking functionality in Xen 3.4 through 4.1 allows local HVM guest OS administrators to cause a denial of service (crash) via a large bitmap image.</v>
       </c>
-      <c r="J262" s="78"/>
-      <c r="K262" s="78" t="s">
+      <c r="K262" s="81" t="s">
         <v>1325</v>
       </c>
-      <c r="L262" s="78" t="s">
+      <c r="L262" s="79" t="s">
         <v>1460</v>
       </c>
-      <c r="M262" s="78"/>
-      <c r="N262" s="78"/>
-    </row>
-    <row r="263" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="B263" s="22" t="s">
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>468</v>
+      </c>
+      <c r="B263" t="s">
         <v>1511</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D263" s="22" t="s">
+      <c r="C263" t="s">
+        <v>469</v>
+      </c>
+      <c r="D263" t="s">
+        <v>491</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H263">
+        <f>_xlfn.XLOOKUP(E263,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
+        <v>1</v>
+      </c>
+      <c r="I263" t="str">
+        <f>_xlfn.XLOOKUP(C263,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
+        <v>Buffer overflow in the Python bindings for the xc_vcpu_setaffinity call in Xen 4.0.x, 4.1.x, and 4.2.x allows local administrators with permissions to configure VCPU affinity to cause a denial of service (memory corruption and xend toolstack crash) and possibly gain privileges via a crafted cpumap.</v>
+      </c>
+      <c r="K263" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L263" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A264" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B264" s="28" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D264" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="G264" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="H264" s="28">
+        <f>_xlfn.XLOOKUP(E264,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
+        <v>1</v>
+      </c>
+      <c r="I264" s="28" t="str">
+        <f>_xlfn.XLOOKUP(C264,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
+        <v>The ocaml binding for the xc_vcpu_getaffinity function in Xen 4.2.x and 4.3.x frees certain memory that may still be intended for use, which allows local users to cause a denial of service (heap corruption and crash) and possibly execute arbitrary code via unspecified vectors that trigger a (1) use-after-free or (2) double free.</v>
+      </c>
+      <c r="J264" s="28"/>
+      <c r="K264" s="28" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L264" s="28" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M264" s="28" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N264" s="28"/>
+    </row>
+    <row r="265" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D265" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E263" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="F263" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="G263" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="H263" s="22">
-        <f>_xlfn.XLOOKUP(E263,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
-        <v>1</v>
-      </c>
-      <c r="I263" s="22" t="str">
-        <f>_xlfn.XLOOKUP(C263,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
-        <v>Stack-based buffer overflow in the dirty video RAM tracking functionality in Xen 3.4 through 4.1 allows local HVM guest OS administrators to cause a denial of service (crash) via a large bitmap image.</v>
-      </c>
-      <c r="K263" s="26" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L263" s="22" t="s">
+      <c r="E265" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G265" s="75" t="s">
+        <v>502</v>
+      </c>
+      <c r="H265" s="8">
+        <f>_xlfn.XLOOKUP(E265,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
+        <v>3</v>
+      </c>
+      <c r="I265" s="8" t="str">
+        <f>_xlfn.XLOOKUP(C265,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
+        <v>The Ocaml xenstored implementation (oxenstored) in Xen 4.1.x, 4.2.x, and 4.3.x allows local guest domains to cause a denial of service (domain shutdown) via a large message reply.</v>
+      </c>
+      <c r="K265" s="76" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L265" s="8" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>468</v>
-      </c>
-      <c r="B264" t="s">
+      <c r="N265" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B266" s="8" t="s">
         <v>1511</v>
       </c>
-      <c r="C264" t="s">
-        <v>469</v>
-      </c>
-      <c r="D264" t="s">
-        <v>491</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F264" s="9" t="s">
+      <c r="C266" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E266" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="F266" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G264" s="4" t="s">
+      <c r="G266" s="75" t="s">
         <v>502</v>
       </c>
-      <c r="H264">
-        <f>_xlfn.XLOOKUP(E264,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
-        <v>1</v>
-      </c>
-      <c r="I264" t="str">
-        <f>_xlfn.XLOOKUP(C264,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
-        <v>Buffer overflow in the Python bindings for the xc_vcpu_setaffinity call in Xen 4.0.x, 4.1.x, and 4.2.x allows local administrators with permissions to configure VCPU affinity to cause a denial of service (memory corruption and xend toolstack crash) and possibly gain privileges via a crafted cpumap.</v>
-      </c>
-      <c r="K264" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L264" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A265" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="B265" s="28" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C265" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D265" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="E265" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="F265" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="G265" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="H265" s="28">
-        <f>_xlfn.XLOOKUP(E265,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
-        <v>1</v>
-      </c>
-      <c r="I265" s="28" t="str">
-        <f>_xlfn.XLOOKUP(C265,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
-        <v>The ocaml binding for the xc_vcpu_getaffinity function in Xen 4.2.x and 4.3.x frees certain memory that may still be intended for use, which allows local users to cause a denial of service (heap corruption and crash) and possibly execute arbitrary code via unspecified vectors that trigger a (1) use-after-free or (2) double free.</v>
-      </c>
-      <c r="J265" s="28"/>
-      <c r="K265" s="28" t="s">
-        <v>1327</v>
-      </c>
-      <c r="L265" s="28" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M265" s="28" t="s">
-        <v>1483</v>
-      </c>
-      <c r="N265" s="28"/>
-    </row>
-    <row r="266" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="78" t="s">
-        <v>474</v>
-      </c>
-      <c r="B266" s="78" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C266" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="D266" s="78" t="s">
-        <v>487</v>
-      </c>
-      <c r="E266" s="79" t="s">
-        <v>476</v>
-      </c>
-      <c r="F266" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="G266" s="79" t="s">
-        <v>502</v>
-      </c>
-      <c r="H266" s="78">
+      <c r="H266" s="8">
         <f>_xlfn.XLOOKUP(E266,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
@@ -31036,71 +31051,71 @@
         <f>_xlfn.XLOOKUP(C266,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The Ocaml xenstored implementation (oxenstored) in Xen 4.1.x, 4.2.x, and 4.3.x allows local guest domains to cause a denial of service (domain shutdown) via a large message reply.</v>
       </c>
-      <c r="K266" s="80" t="s">
+      <c r="K266" s="76" t="s">
         <v>1520</v>
       </c>
-      <c r="L266" s="78" t="s">
+      <c r="L266" s="8" t="s">
         <v>1460</v>
       </c>
-      <c r="N266" s="78" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="78" t="s">
+      <c r="N266" s="8" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B267" s="78" t="s">
+      <c r="B267" s="22" t="s">
         <v>1511</v>
       </c>
-      <c r="C267" s="78" t="s">
+      <c r="C267" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="D267" s="78" t="s">
+      <c r="D267" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="E267" s="79" t="s">
+      <c r="E267" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F267" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="G267" s="79" t="s">
-        <v>502</v>
-      </c>
-      <c r="H267" s="78">
+      <c r="F267" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="G267" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H267" s="22">
         <f>_xlfn.XLOOKUP(E267,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
         <v>3</v>
       </c>
-      <c r="I267" s="8" t="str">
+      <c r="I267" t="str">
         <f>_xlfn.XLOOKUP(C267,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
         <v>The Ocaml xenstored implementation (oxenstored) in Xen 4.1.x, 4.2.x, and 4.3.x allows local guest domains to cause a denial of service (domain shutdown) via a large message reply.</v>
       </c>
-      <c r="K267" s="80" t="s">
+      <c r="K267" s="26" t="s">
         <v>1520</v>
       </c>
-      <c r="L267" s="78" t="s">
+      <c r="L267" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="N267" s="78" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N267" s="22" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="22" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>1511</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F268" s="24" t="s">
         <v>506</v>
@@ -31110,64 +31125,24 @@
       </c>
       <c r="H268" s="22">
         <f>_xlfn.XLOOKUP(E268,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
-        <v>3</v>
-      </c>
-      <c r="I268" t="str">
+        <v>1</v>
+      </c>
+      <c r="I268" s="28" t="str">
         <f>_xlfn.XLOOKUP(C268,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
-        <v>The Ocaml xenstored implementation (oxenstored) in Xen 4.1.x, 4.2.x, and 4.3.x allows local guest domains to cause a denial of service (domain shutdown) via a large message reply.</v>
-      </c>
+        <v>Xen 3.2.x through 4.4.x does not properly clean memory pages recovered from guests, which allows local guest OS users to obtain sensitive information via unspecified vectors.</v>
+      </c>
+      <c r="J268" s="22"/>
       <c r="K268" s="26" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L268" s="22" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L268" s="28" t="s">
         <v>1460</v>
       </c>
-      <c r="N268" s="22" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A269" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="B269" s="22" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="D269" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="E269" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F269" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="G269" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="H269" s="22">
-        <f>_xlfn.XLOOKUP(E269,commit_num_files!A$2:A$319,commit_num_files!B$2:B$319)</f>
-        <v>1</v>
-      </c>
-      <c r="I269" s="28" t="str">
-        <f>_xlfn.XLOOKUP(C269,cve_title!A$2:A$164,cve_title!B$2:B$164)</f>
-        <v>Xen 3.2.x through 4.4.x does not properly clean memory pages recovered from guests, which allows local guest OS users to obtain sensitive information via unspecified vectors.</v>
-      </c>
-      <c r="J269" s="22"/>
-      <c r="K269" s="26" t="s">
-        <v>1328</v>
-      </c>
-      <c r="L269" s="28" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M269" s="22"/>
-      <c r="N269" s="22"/>
+      <c r="M268" s="22"/>
+      <c r="N268" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H269" xr:uid="{40F562BE-A651-8940-B367-6E32E546EE7D}"/>
+  <autoFilter ref="A2:H268" xr:uid="{40F562BE-A651-8940-B367-6E32E546EE7D}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
@@ -31177,7 +31152,7 @@
     <hyperlink ref="K6" r:id="rId2" xr:uid="{3CD0349C-16EB-B940-9059-16DC881A453B}"/>
     <hyperlink ref="K144" r:id="rId3" xr:uid="{64FE4FEB-5083-E84A-9F9F-0DA40E054D79}"/>
     <hyperlink ref="K131" r:id="rId4" xr:uid="{99FB61D0-AA30-8243-A8C9-699B7698DEDA}"/>
-    <hyperlink ref="K263" r:id="rId5" xr:uid="{676D98BD-6C2D-5841-B1ED-EC904212D2C8}"/>
+    <hyperlink ref="K262" r:id="rId5" xr:uid="{676D98BD-6C2D-5841-B1ED-EC904212D2C8}"/>
     <hyperlink ref="K132" r:id="rId6" xr:uid="{30A1C770-F282-9045-BEBE-1EA393320479}"/>
     <hyperlink ref="K191" r:id="rId7" xr:uid="{C005FF8C-17A9-0843-A40A-AF5D37E1E76F}"/>
     <hyperlink ref="K23" r:id="rId8" xr:uid="{112AED76-71EF-C34B-8E94-5CFF3186D2BE}"/>
@@ -31232,7 +31207,7 @@
     <hyperlink ref="K253" r:id="rId57" xr:uid="{1B3047BE-6841-E547-907B-E324A93DBFBE}"/>
     <hyperlink ref="K256" r:id="rId58" xr:uid="{0E9826CD-842A-BB44-833B-618B461D53DA}"/>
     <hyperlink ref="K258" r:id="rId59" xr:uid="{CA9F4555-950C-7442-8694-B0A2E8720D22}"/>
-    <hyperlink ref="K269" r:id="rId60" xr:uid="{AEBD1ECB-66D8-A541-A172-C0CF7EDA73F4}"/>
+    <hyperlink ref="K268" r:id="rId60" xr:uid="{AEBD1ECB-66D8-A541-A172-C0CF7EDA73F4}"/>
     <hyperlink ref="K238" r:id="rId61" xr:uid="{5FA90226-970E-9F4E-AF4F-6DBCC8A576EA}"/>
     <hyperlink ref="K248" r:id="rId62" xr:uid="{887A4599-0A8F-D144-AF31-394DE0486357}"/>
     <hyperlink ref="K249" r:id="rId63" xr:uid="{D24E9A65-1B62-42A9-AA15-4C71BF3B1C52}"/>
@@ -31261,9 +31236,9 @@
     <hyperlink ref="K69" r:id="rId86" xr:uid="{D90506F3-174E-4F92-BF26-95F8C05E2408}"/>
     <hyperlink ref="K105" r:id="rId87" xr:uid="{7124AA7D-416E-4AFA-9AF3-DC69820F0FA7}"/>
     <hyperlink ref="K136" r:id="rId88" xr:uid="{5F8FF057-8E3D-488A-A314-8063281FDA06}"/>
-    <hyperlink ref="K268" r:id="rId89" xr:uid="{80140301-B829-4AFF-B130-C4295EB2547F}"/>
-    <hyperlink ref="K267" r:id="rId90" xr:uid="{F4A189B1-035C-4834-93AB-5319E2CC10CF}"/>
-    <hyperlink ref="K266" r:id="rId91" xr:uid="{EBE75AE2-1F87-4CF1-8604-5E777F267CA9}"/>
+    <hyperlink ref="K267" r:id="rId89" xr:uid="{80140301-B829-4AFF-B130-C4295EB2547F}"/>
+    <hyperlink ref="K266" r:id="rId90" xr:uid="{F4A189B1-035C-4834-93AB-5319E2CC10CF}"/>
+    <hyperlink ref="K265" r:id="rId91" xr:uid="{EBE75AE2-1F87-4CF1-8604-5E777F267CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
